--- a/result/verified/j30_Bimerge_BDD.xlsx
+++ b/result/verified/j30_Bimerge_BDD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15" conformance="strict">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="153222"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\MRCPSPTest\result\verified\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\MRCPSPTest\result\verified\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5247AF13-3BF4-4C46-AC20-C25D10D66179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10080" windowHeight="10215"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MRCPSP_j30_results_20250909_005" sheetId="1" r:id="rId1"/>
@@ -1997,7 +1998,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2804,16 +2805,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A586" workbookViewId="0">
-      <selection activeCell="H425" sqref="H425"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A300" sqref="A300:H300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2842,7 +2843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2868,7 +2869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2894,7 +2895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2920,7 +2921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2946,7 +2947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2998,7 +2999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -3050,7 +3051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3076,7 +3077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3102,7 +3103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3154,7 +3155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3180,7 +3181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -3206,7 +3207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3258,7 +3259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3284,7 +3285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -3310,7 +3311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3336,7 +3337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -3362,7 +3363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3388,7 +3389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -3414,7 +3415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -3440,7 +3441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -3466,7 +3467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -3492,7 +3493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -3518,7 +3519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -3544,7 +3545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -3596,7 +3597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -3648,7 +3649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -3700,7 +3701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -3726,7 +3727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -3752,7 +3753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -3778,7 +3779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -3804,7 +3805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -3830,7 +3831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -3856,7 +3857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -3882,7 +3883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -3908,7 +3909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -3934,7 +3935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -3960,7 +3961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -4012,7 +4013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -4064,7 +4065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -4090,7 +4091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -4116,7 +4117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -4142,7 +4143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -4194,7 +4195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -4220,7 +4221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -4246,7 +4247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -4272,7 +4273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -4298,7 +4299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -4324,7 +4325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -4350,7 +4351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -4428,7 +4429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -4454,7 +4455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -4480,7 +4481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -4506,7 +4507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -4532,7 +4533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -4558,7 +4559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -4584,7 +4585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -4610,7 +4611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -4636,7 +4637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -4662,7 +4663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -4688,7 +4689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -4714,7 +4715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -4740,7 +4741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -4792,7 +4793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -4818,7 +4819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>89</v>
       </c>
@@ -4844,7 +4845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -4870,7 +4871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -4896,7 +4897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>92</v>
       </c>
@@ -4922,7 +4923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -4948,7 +4949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>94</v>
       </c>
@@ -4974,7 +4975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -5000,7 +5001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>96</v>
       </c>
@@ -5026,7 +5027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>97</v>
       </c>
@@ -5052,7 +5053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -5078,7 +5079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>99</v>
       </c>
@@ -5104,7 +5105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>100</v>
       </c>
@@ -5130,7 +5131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>101</v>
       </c>
@@ -5156,7 +5157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>102</v>
       </c>
@@ -5182,7 +5183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -5208,7 +5209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -5234,7 +5235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>105</v>
       </c>
@@ -5260,7 +5261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -5286,7 +5287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>107</v>
       </c>
@@ -5312,7 +5313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -5338,7 +5339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>109</v>
       </c>
@@ -5364,7 +5365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>110</v>
       </c>
@@ -5390,7 +5391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -5416,7 +5417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -5442,7 +5443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -5465,7 +5466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>115</v>
       </c>
@@ -5488,7 +5489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -5511,7 +5512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -5534,7 +5535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>118</v>
       </c>
@@ -5557,7 +5558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>119</v>
       </c>
@@ -5580,7 +5581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>120</v>
       </c>
@@ -5603,7 +5604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>121</v>
       </c>
@@ -5626,7 +5627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>122</v>
       </c>
@@ -5649,7 +5650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -5672,7 +5673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>124</v>
       </c>
@@ -5698,7 +5699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -5724,7 +5725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>126</v>
       </c>
@@ -5750,7 +5751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -5776,7 +5777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>128</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>129</v>
       </c>
@@ -5828,7 +5829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>130</v>
       </c>
@@ -5854,7 +5855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>131</v>
       </c>
@@ -5880,7 +5881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>132</v>
       </c>
@@ -5906,7 +5907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>133</v>
       </c>
@@ -5932,7 +5933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>134</v>
       </c>
@@ -5958,7 +5959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>135</v>
       </c>
@@ -5984,7 +5985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>136</v>
       </c>
@@ -6010,7 +6011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>137</v>
       </c>
@@ -6036,7 +6037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>138</v>
       </c>
@@ -6062,7 +6063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>139</v>
       </c>
@@ -6088,7 +6089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>140</v>
       </c>
@@ -6114,7 +6115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>141</v>
       </c>
@@ -6140,7 +6141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>142</v>
       </c>
@@ -6166,7 +6167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>143</v>
       </c>
@@ -6192,7 +6193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>144</v>
       </c>
@@ -6218,7 +6219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>145</v>
       </c>
@@ -6244,7 +6245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>146</v>
       </c>
@@ -6270,7 +6271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>147</v>
       </c>
@@ -6296,7 +6297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>148</v>
       </c>
@@ -6322,7 +6323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>149</v>
       </c>
@@ -6348,7 +6349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>150</v>
       </c>
@@ -6374,7 +6375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>151</v>
       </c>
@@ -6400,7 +6401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>152</v>
       </c>
@@ -6426,7 +6427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>153</v>
       </c>
@@ -6452,7 +6453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>154</v>
       </c>
@@ -6478,7 +6479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>155</v>
       </c>
@@ -6504,7 +6505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>156</v>
       </c>
@@ -6530,7 +6531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>157</v>
       </c>
@@ -6556,7 +6557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>158</v>
       </c>
@@ -6582,7 +6583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>159</v>
       </c>
@@ -6608,7 +6609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>160</v>
       </c>
@@ -6634,7 +6635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>161</v>
       </c>
@@ -6660,7 +6661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>162</v>
       </c>
@@ -6686,7 +6687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>163</v>
       </c>
@@ -6712,7 +6713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>164</v>
       </c>
@@ -6738,7 +6739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>165</v>
       </c>
@@ -6764,7 +6765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>166</v>
       </c>
@@ -6790,7 +6791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>167</v>
       </c>
@@ -6816,7 +6817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>168</v>
       </c>
@@ -6842,7 +6843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>169</v>
       </c>
@@ -6868,7 +6869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>170</v>
       </c>
@@ -6894,7 +6895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>171</v>
       </c>
@@ -6920,7 +6921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>172</v>
       </c>
@@ -6946,7 +6947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>173</v>
       </c>
@@ -6972,7 +6973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>174</v>
       </c>
@@ -6998,7 +6999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>175</v>
       </c>
@@ -7024,7 +7025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>176</v>
       </c>
@@ -7050,7 +7051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>177</v>
       </c>
@@ -7076,7 +7077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>178</v>
       </c>
@@ -7102,7 +7103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>179</v>
       </c>
@@ -7128,7 +7129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>180</v>
       </c>
@@ -7154,7 +7155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>181</v>
       </c>
@@ -7180,7 +7181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>182</v>
       </c>
@@ -7206,7 +7207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>183</v>
       </c>
@@ -7232,7 +7233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>184</v>
       </c>
@@ -7258,7 +7259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>185</v>
       </c>
@@ -7284,7 +7285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>186</v>
       </c>
@@ -7310,7 +7311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>187</v>
       </c>
@@ -7336,7 +7337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>188</v>
       </c>
@@ -7362,7 +7363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>189</v>
       </c>
@@ -7388,7 +7389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>190</v>
       </c>
@@ -7414,7 +7415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>191</v>
       </c>
@@ -7440,7 +7441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>192</v>
       </c>
@@ -7466,7 +7467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>193</v>
       </c>
@@ -7492,7 +7493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>194</v>
       </c>
@@ -7518,7 +7519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>195</v>
       </c>
@@ -7544,7 +7545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>196</v>
       </c>
@@ -7570,7 +7571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>197</v>
       </c>
@@ -7596,7 +7597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>198</v>
       </c>
@@ -7622,7 +7623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>199</v>
       </c>
@@ -7648,7 +7649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>200</v>
       </c>
@@ -7674,7 +7675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>201</v>
       </c>
@@ -7700,7 +7701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>202</v>
       </c>
@@ -7726,7 +7727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>203</v>
       </c>
@@ -7752,7 +7753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>204</v>
       </c>
@@ -7778,7 +7779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>205</v>
       </c>
@@ -7804,7 +7805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>206</v>
       </c>
@@ -7830,7 +7831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>207</v>
       </c>
@@ -7856,7 +7857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>208</v>
       </c>
@@ -7882,7 +7883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>209</v>
       </c>
@@ -7908,7 +7909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>210</v>
       </c>
@@ -7934,7 +7935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>211</v>
       </c>
@@ -7960,7 +7961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>212</v>
       </c>
@@ -7986,7 +7987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>213</v>
       </c>
@@ -8012,7 +8013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>214</v>
       </c>
@@ -8038,7 +8039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>215</v>
       </c>
@@ -8064,7 +8065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>216</v>
       </c>
@@ -8090,7 +8091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>217</v>
       </c>
@@ -8116,7 +8117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>218</v>
       </c>
@@ -8142,7 +8143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>219</v>
       </c>
@@ -8168,7 +8169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>220</v>
       </c>
@@ -8194,7 +8195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>221</v>
       </c>
@@ -8220,7 +8221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>222</v>
       </c>
@@ -8246,7 +8247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>223</v>
       </c>
@@ -8272,7 +8273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>224</v>
       </c>
@@ -8295,7 +8296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>225</v>
       </c>
@@ -8318,7 +8319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>226</v>
       </c>
@@ -8341,7 +8342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>227</v>
       </c>
@@ -8364,7 +8365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>228</v>
       </c>
@@ -8387,7 +8388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>229</v>
       </c>
@@ -8410,7 +8411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>230</v>
       </c>
@@ -8433,7 +8434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>231</v>
       </c>
@@ -8456,7 +8457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>232</v>
       </c>
@@ -8479,7 +8480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>233</v>
       </c>
@@ -8502,7 +8503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>234</v>
       </c>
@@ -8528,7 +8529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>235</v>
       </c>
@@ -8554,7 +8555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>236</v>
       </c>
@@ -8580,7 +8581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>237</v>
       </c>
@@ -8606,7 +8607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>238</v>
       </c>
@@ -8632,7 +8633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>239</v>
       </c>
@@ -8658,7 +8659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>240</v>
       </c>
@@ -8684,7 +8685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>241</v>
       </c>
@@ -8710,7 +8711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>242</v>
       </c>
@@ -8736,7 +8737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>243</v>
       </c>
@@ -8762,7 +8763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>244</v>
       </c>
@@ -8788,7 +8789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>245</v>
       </c>
@@ -8814,7 +8815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>246</v>
       </c>
@@ -8840,7 +8841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>247</v>
       </c>
@@ -8866,7 +8867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>248</v>
       </c>
@@ -8892,7 +8893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>249</v>
       </c>
@@ -8918,7 +8919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>250</v>
       </c>
@@ -8944,7 +8945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>251</v>
       </c>
@@ -8970,7 +8971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>252</v>
       </c>
@@ -8996,7 +8997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>253</v>
       </c>
@@ -9022,7 +9023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>254</v>
       </c>
@@ -9048,7 +9049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>255</v>
       </c>
@@ -9074,7 +9075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>256</v>
       </c>
@@ -9100,7 +9101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>257</v>
       </c>
@@ -9126,7 +9127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>258</v>
       </c>
@@ -9152,7 +9153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>259</v>
       </c>
@@ -9178,7 +9179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>260</v>
       </c>
@@ -9204,7 +9205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>261</v>
       </c>
@@ -9230,7 +9231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>262</v>
       </c>
@@ -9256,7 +9257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>263</v>
       </c>
@@ -9282,7 +9283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>264</v>
       </c>
@@ -9308,7 +9309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>265</v>
       </c>
@@ -9334,7 +9335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>266</v>
       </c>
@@ -9360,7 +9361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>267</v>
       </c>
@@ -9386,7 +9387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>268</v>
       </c>
@@ -9412,7 +9413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>269</v>
       </c>
@@ -9438,7 +9439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>270</v>
       </c>
@@ -9464,7 +9465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>271</v>
       </c>
@@ -9490,7 +9491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>272</v>
       </c>
@@ -9516,7 +9517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>273</v>
       </c>
@@ -9542,7 +9543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>274</v>
       </c>
@@ -9568,7 +9569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>275</v>
       </c>
@@ -9594,7 +9595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>276</v>
       </c>
@@ -9620,7 +9621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>277</v>
       </c>
@@ -9646,7 +9647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>278</v>
       </c>
@@ -9672,7 +9673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>279</v>
       </c>
@@ -9698,7 +9699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>280</v>
       </c>
@@ -9724,7 +9725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>281</v>
       </c>
@@ -9750,7 +9751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>282</v>
       </c>
@@ -9776,7 +9777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>283</v>
       </c>
@@ -9802,7 +9803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>284</v>
       </c>
@@ -9828,7 +9829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>285</v>
       </c>
@@ -9854,7 +9855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>286</v>
       </c>
@@ -9880,7 +9881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>287</v>
       </c>
@@ -9906,7 +9907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>288</v>
       </c>
@@ -9932,7 +9933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>289</v>
       </c>
@@ -9958,7 +9959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>290</v>
       </c>
@@ -9984,7 +9985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>291</v>
       </c>
@@ -10010,7 +10011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>292</v>
       </c>
@@ -10036,7 +10037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>293</v>
       </c>
@@ -10062,7 +10063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>294</v>
       </c>
@@ -10085,7 +10086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>295</v>
       </c>
@@ -10108,7 +10109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>296</v>
       </c>
@@ -10131,7 +10132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>297</v>
       </c>
@@ -10154,7 +10155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>298</v>
       </c>
@@ -10177,7 +10178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>299</v>
       </c>
@@ -10200,7 +10201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>300</v>
       </c>
@@ -10223,7 +10224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>301</v>
       </c>
@@ -10246,7 +10247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>302</v>
       </c>
@@ -10269,7 +10270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>303</v>
       </c>
@@ -10292,7 +10293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>304</v>
       </c>
@@ -10321,7 +10322,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>306</v>
       </c>
@@ -10350,7 +10351,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>307</v>
       </c>
@@ -10379,7 +10380,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>308</v>
       </c>
@@ -10408,7 +10409,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>309</v>
       </c>
@@ -10434,7 +10435,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>310</v>
       </c>
@@ -10460,7 +10461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>311</v>
       </c>
@@ -10486,7 +10487,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>312</v>
       </c>
@@ -10512,7 +10513,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>313</v>
       </c>
@@ -10538,7 +10539,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>314</v>
       </c>
@@ -10567,7 +10568,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>315</v>
       </c>
@@ -10593,7 +10594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>316</v>
       </c>
@@ -10619,7 +10620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>317</v>
       </c>
@@ -10645,7 +10646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>318</v>
       </c>
@@ -10671,7 +10672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>319</v>
       </c>
@@ -10697,7 +10698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>320</v>
       </c>
@@ -10723,7 +10724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>321</v>
       </c>
@@ -10749,7 +10750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>322</v>
       </c>
@@ -10775,7 +10776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>323</v>
       </c>
@@ -10801,7 +10802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>324</v>
       </c>
@@ -10827,7 +10828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>325</v>
       </c>
@@ -10853,7 +10854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>326</v>
       </c>
@@ -10879,7 +10880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>327</v>
       </c>
@@ -10905,7 +10906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>328</v>
       </c>
@@ -10931,7 +10932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>329</v>
       </c>
@@ -10957,7 +10958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>330</v>
       </c>
@@ -10983,7 +10984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>331</v>
       </c>
@@ -11009,7 +11010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>332</v>
       </c>
@@ -11035,7 +11036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>333</v>
       </c>
@@ -11061,7 +11062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>334</v>
       </c>
@@ -11087,7 +11088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>335</v>
       </c>
@@ -11110,7 +11111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>336</v>
       </c>
@@ -11133,7 +11134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>337</v>
       </c>
@@ -11156,7 +11157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>338</v>
       </c>
@@ -11179,7 +11180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>339</v>
       </c>
@@ -11202,7 +11203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>340</v>
       </c>
@@ -11225,7 +11226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>341</v>
       </c>
@@ -11248,7 +11249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>342</v>
       </c>
@@ -11271,7 +11272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>343</v>
       </c>
@@ -11294,7 +11295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>344</v>
       </c>
@@ -11317,7 +11318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>345</v>
       </c>
@@ -11343,7 +11344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>346</v>
       </c>
@@ -11369,7 +11370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>347</v>
       </c>
@@ -11395,7 +11396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>348</v>
       </c>
@@ -11421,7 +11422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>349</v>
       </c>
@@ -11447,7 +11448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>350</v>
       </c>
@@ -11473,7 +11474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>351</v>
       </c>
@@ -11499,7 +11500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>352</v>
       </c>
@@ -11525,7 +11526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>353</v>
       </c>
@@ -11551,7 +11552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>354</v>
       </c>
@@ -11577,7 +11578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>355</v>
       </c>
@@ -11603,7 +11604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>356</v>
       </c>
@@ -11629,7 +11630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>357</v>
       </c>
@@ -11655,7 +11656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>358</v>
       </c>
@@ -11681,7 +11682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>359</v>
       </c>
@@ -11707,7 +11708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>360</v>
       </c>
@@ -11733,7 +11734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>361</v>
       </c>
@@ -11759,7 +11760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>362</v>
       </c>
@@ -11785,7 +11786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>363</v>
       </c>
@@ -11811,7 +11812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>364</v>
       </c>
@@ -11837,7 +11838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>365</v>
       </c>
@@ -11863,7 +11864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>366</v>
       </c>
@@ -11889,7 +11890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>367</v>
       </c>
@@ -11915,7 +11916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>368</v>
       </c>
@@ -11941,7 +11942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>369</v>
       </c>
@@ -11967,7 +11968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>370</v>
       </c>
@@ -11993,7 +11994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>371</v>
       </c>
@@ -12019,7 +12020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>372</v>
       </c>
@@ -12045,7 +12046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>373</v>
       </c>
@@ -12071,7 +12072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>374</v>
       </c>
@@ -12097,7 +12098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>375</v>
       </c>
@@ -12123,7 +12124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>376</v>
       </c>
@@ -12149,7 +12150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>377</v>
       </c>
@@ -12175,7 +12176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>378</v>
       </c>
@@ -12201,7 +12202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>379</v>
       </c>
@@ -12227,7 +12228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>380</v>
       </c>
@@ -12253,7 +12254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>381</v>
       </c>
@@ -12279,7 +12280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>382</v>
       </c>
@@ -12305,7 +12306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>383</v>
       </c>
@@ -12331,7 +12332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>384</v>
       </c>
@@ -12357,7 +12358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>385</v>
       </c>
@@ -12383,7 +12384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>386</v>
       </c>
@@ -12409,7 +12410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>387</v>
       </c>
@@ -12435,7 +12436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>388</v>
       </c>
@@ -12461,7 +12462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>389</v>
       </c>
@@ -12487,7 +12488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>390</v>
       </c>
@@ -12513,7 +12514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>391</v>
       </c>
@@ -12539,7 +12540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>392</v>
       </c>
@@ -12565,7 +12566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>393</v>
       </c>
@@ -12591,7 +12592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>394</v>
       </c>
@@ -12617,7 +12618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>395</v>
       </c>
@@ -12643,7 +12644,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>396</v>
       </c>
@@ -12672,7 +12673,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>397</v>
       </c>
@@ -12698,7 +12699,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>398</v>
       </c>
@@ -12727,7 +12728,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>399</v>
       </c>
@@ -12756,7 +12757,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>400</v>
       </c>
@@ -12782,7 +12783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>401</v>
       </c>
@@ -12811,7 +12812,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>402</v>
       </c>
@@ -12837,7 +12838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>403</v>
       </c>
@@ -12866,7 +12867,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>404</v>
       </c>
@@ -12895,7 +12896,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>405</v>
       </c>
@@ -12921,7 +12922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>406</v>
       </c>
@@ -12947,7 +12948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>407</v>
       </c>
@@ -12973,7 +12974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>408</v>
       </c>
@@ -12999,7 +13000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>409</v>
       </c>
@@ -13025,7 +13026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>410</v>
       </c>
@@ -13051,7 +13052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>411</v>
       </c>
@@ -13077,7 +13078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>412</v>
       </c>
@@ -13103,7 +13104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>413</v>
       </c>
@@ -13129,7 +13130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>414</v>
       </c>
@@ -13155,7 +13156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>415</v>
       </c>
@@ -13181,7 +13182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>416</v>
       </c>
@@ -13207,7 +13208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>417</v>
       </c>
@@ -13233,7 +13234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>418</v>
       </c>
@@ -13259,7 +13260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>419</v>
       </c>
@@ -13285,7 +13286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>420</v>
       </c>
@@ -13311,7 +13312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>421</v>
       </c>
@@ -13337,7 +13338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>422</v>
       </c>
@@ -13363,7 +13364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>423</v>
       </c>
@@ -13389,7 +13390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>424</v>
       </c>
@@ -13415,7 +13416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>425</v>
       </c>
@@ -13441,7 +13442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>426</v>
       </c>
@@ -13467,7 +13468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>427</v>
       </c>
@@ -13493,7 +13494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>428</v>
       </c>
@@ -13519,7 +13520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>429</v>
       </c>
@@ -13545,7 +13546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>430</v>
       </c>
@@ -13571,7 +13572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>431</v>
       </c>
@@ -13597,7 +13598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>432</v>
       </c>
@@ -13623,7 +13624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>433</v>
       </c>
@@ -13649,7 +13650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>434</v>
       </c>
@@ -13675,7 +13676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>435</v>
       </c>
@@ -13701,7 +13702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>436</v>
       </c>
@@ -13727,7 +13728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>437</v>
       </c>
@@ -13753,7 +13754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>438</v>
       </c>
@@ -13779,7 +13780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>439</v>
       </c>
@@ -13805,7 +13806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>440</v>
       </c>
@@ -13831,7 +13832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>441</v>
       </c>
@@ -13857,7 +13858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>442</v>
       </c>
@@ -13883,7 +13884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>443</v>
       </c>
@@ -13909,7 +13910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>444</v>
       </c>
@@ -13935,7 +13936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>445</v>
       </c>
@@ -13958,7 +13959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>446</v>
       </c>
@@ -13981,7 +13982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>447</v>
       </c>
@@ -14004,7 +14005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>448</v>
       </c>
@@ -14027,7 +14028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>449</v>
       </c>
@@ -14050,7 +14051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>450</v>
       </c>
@@ -14073,7 +14074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>451</v>
       </c>
@@ -14096,7 +14097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>452</v>
       </c>
@@ -14119,7 +14120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>453</v>
       </c>
@@ -14142,7 +14143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>454</v>
       </c>
@@ -14165,7 +14166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>455</v>
       </c>
@@ -14191,7 +14192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>456</v>
       </c>
@@ -14217,7 +14218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>457</v>
       </c>
@@ -14243,7 +14244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>458</v>
       </c>
@@ -14269,7 +14270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>459</v>
       </c>
@@ -14295,7 +14296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>460</v>
       </c>
@@ -14321,7 +14322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>461</v>
       </c>
@@ -14347,7 +14348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>462</v>
       </c>
@@ -14373,7 +14374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>463</v>
       </c>
@@ -14399,7 +14400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>464</v>
       </c>
@@ -14425,7 +14426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>465</v>
       </c>
@@ -14451,7 +14452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>466</v>
       </c>
@@ -14477,7 +14478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>467</v>
       </c>
@@ -14503,7 +14504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>468</v>
       </c>
@@ -14529,7 +14530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>469</v>
       </c>
@@ -14555,7 +14556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>470</v>
       </c>
@@ -14581,7 +14582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>471</v>
       </c>
@@ -14607,7 +14608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>472</v>
       </c>
@@ -14633,7 +14634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>473</v>
       </c>
@@ -14659,7 +14660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>474</v>
       </c>
@@ -14685,7 +14686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>475</v>
       </c>
@@ -14711,7 +14712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>476</v>
       </c>
@@ -14737,7 +14738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>477</v>
       </c>
@@ -14763,7 +14764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>478</v>
       </c>
@@ -14789,7 +14790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>479</v>
       </c>
@@ -14815,7 +14816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>480</v>
       </c>
@@ -14841,7 +14842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>481</v>
       </c>
@@ -14867,7 +14868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>482</v>
       </c>
@@ -14893,7 +14894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>483</v>
       </c>
@@ -14919,7 +14920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>484</v>
       </c>
@@ -14945,7 +14946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>485</v>
       </c>
@@ -14971,7 +14972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>486</v>
       </c>
@@ -14997,7 +14998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>487</v>
       </c>
@@ -15023,7 +15024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>488</v>
       </c>
@@ -15049,7 +15050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>489</v>
       </c>
@@ -15075,7 +15076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>490</v>
       </c>
@@ -15104,7 +15105,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>491</v>
       </c>
@@ -15130,7 +15131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>492</v>
       </c>
@@ -15156,7 +15157,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>493</v>
       </c>
@@ -15185,7 +15186,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>494</v>
       </c>
@@ -15211,7 +15212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>495</v>
       </c>
@@ -15237,7 +15238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>496</v>
       </c>
@@ -15263,7 +15264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>497</v>
       </c>
@@ -15289,7 +15290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>498</v>
       </c>
@@ -15315,7 +15316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>499</v>
       </c>
@@ -15341,7 +15342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>500</v>
       </c>
@@ -15367,7 +15368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>501</v>
       </c>
@@ -15393,7 +15394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>502</v>
       </c>
@@ -15419,7 +15420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>503</v>
       </c>
@@ -15445,7 +15446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>504</v>
       </c>
@@ -15471,7 +15472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>505</v>
       </c>
@@ -15497,7 +15498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>506</v>
       </c>
@@ -15523,7 +15524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>507</v>
       </c>
@@ -15549,7 +15550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>508</v>
       </c>
@@ -15575,7 +15576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>509</v>
       </c>
@@ -15601,7 +15602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>510</v>
       </c>
@@ -15627,7 +15628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>511</v>
       </c>
@@ -15653,7 +15654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>512</v>
       </c>
@@ -15679,7 +15680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>513</v>
       </c>
@@ -15705,7 +15706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>514</v>
       </c>
@@ -15731,7 +15732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>515</v>
       </c>
@@ -15757,7 +15758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>516</v>
       </c>
@@ -15783,7 +15784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>517</v>
       </c>
@@ -15809,7 +15810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>518</v>
       </c>
@@ -15835,7 +15836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>519</v>
       </c>
@@ -15861,7 +15862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>520</v>
       </c>
@@ -15887,7 +15888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>521</v>
       </c>
@@ -15913,7 +15914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>522</v>
       </c>
@@ -15939,7 +15940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>523</v>
       </c>
@@ -15965,7 +15966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>524</v>
       </c>
@@ -15991,7 +15992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>525</v>
       </c>
@@ -16017,7 +16018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>526</v>
       </c>
@@ -16043,7 +16044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>527</v>
       </c>
@@ -16069,7 +16070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>528</v>
       </c>
@@ -16095,7 +16096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>529</v>
       </c>
@@ -16121,7 +16122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>530</v>
       </c>
@@ -16147,7 +16148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>531</v>
       </c>
@@ -16173,7 +16174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>532</v>
       </c>
@@ -16199,7 +16200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>533</v>
       </c>
@@ -16225,7 +16226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>534</v>
       </c>
@@ -16251,7 +16252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>535</v>
       </c>
@@ -16277,7 +16278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>536</v>
       </c>
@@ -16303,7 +16304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>537</v>
       </c>
@@ -16329,7 +16330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>538</v>
       </c>
@@ -16355,7 +16356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>539</v>
       </c>
@@ -16381,7 +16382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>540</v>
       </c>
@@ -16407,7 +16408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>541</v>
       </c>
@@ -16433,7 +16434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>542</v>
       </c>
@@ -16459,7 +16460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>543</v>
       </c>
@@ -16485,7 +16486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>544</v>
       </c>
@@ -16511,7 +16512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>545</v>
       </c>
@@ -16537,7 +16538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>546</v>
       </c>
@@ -16563,7 +16564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>547</v>
       </c>
@@ -16589,7 +16590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>548</v>
       </c>
@@ -16615,7 +16616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>549</v>
       </c>
@@ -16641,7 +16642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>550</v>
       </c>
@@ -16667,7 +16668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>551</v>
       </c>
@@ -16693,7 +16694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>552</v>
       </c>
@@ -16719,7 +16720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>553</v>
       </c>
@@ -16745,7 +16746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>554</v>
       </c>
@@ -16771,7 +16772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>555</v>
       </c>
@@ -16794,7 +16795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>556</v>
       </c>
@@ -16817,7 +16818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>557</v>
       </c>
@@ -16840,7 +16841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>558</v>
       </c>
@@ -16863,7 +16864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>559</v>
       </c>
@@ -16886,7 +16887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>560</v>
       </c>
@@ -16909,7 +16910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>561</v>
       </c>
@@ -16932,7 +16933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>562</v>
       </c>
@@ -16955,7 +16956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>563</v>
       </c>
@@ -16978,7 +16979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>564</v>
       </c>
@@ -17001,7 +17002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>565</v>
       </c>
@@ -17027,7 +17028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>566</v>
       </c>
@@ -17053,7 +17054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>567</v>
       </c>
@@ -17079,7 +17080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>568</v>
       </c>
@@ -17105,7 +17106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>569</v>
       </c>
@@ -17131,7 +17132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>570</v>
       </c>
@@ -17157,7 +17158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>571</v>
       </c>
@@ -17183,7 +17184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>572</v>
       </c>
@@ -17209,7 +17210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>573</v>
       </c>
@@ -17235,7 +17236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>574</v>
       </c>
@@ -17261,7 +17262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>575</v>
       </c>
@@ -17287,7 +17288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>576</v>
       </c>
@@ -17313,7 +17314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>577</v>
       </c>
@@ -17339,7 +17340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>578</v>
       </c>
@@ -17365,7 +17366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>579</v>
       </c>
@@ -17391,7 +17392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>580</v>
       </c>
@@ -17417,7 +17418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>581</v>
       </c>
@@ -17443,7 +17444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>582</v>
       </c>
@@ -17469,7 +17470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>583</v>
       </c>
@@ -17495,7 +17496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>584</v>
       </c>
@@ -17521,7 +17522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>585</v>
       </c>
@@ -17547,7 +17548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>586</v>
       </c>
@@ -17573,7 +17574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>587</v>
       </c>
@@ -17599,7 +17600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>588</v>
       </c>
@@ -17625,7 +17626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>589</v>
       </c>
@@ -17651,7 +17652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>590</v>
       </c>
@@ -17677,7 +17678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>591</v>
       </c>
@@ -17703,7 +17704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>592</v>
       </c>
@@ -17729,7 +17730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>593</v>
       </c>
@@ -17755,7 +17756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>594</v>
       </c>
@@ -17781,7 +17782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>595</v>
       </c>
@@ -17807,7 +17808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>596</v>
       </c>
@@ -17833,7 +17834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>597</v>
       </c>
@@ -17859,7 +17860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>598</v>
       </c>
@@ -17885,7 +17886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>599</v>
       </c>
@@ -17911,7 +17912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>600</v>
       </c>
@@ -17937,7 +17938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>601</v>
       </c>
@@ -17963,7 +17964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>602</v>
       </c>
@@ -17989,7 +17990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>603</v>
       </c>
@@ -18015,7 +18016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>604</v>
       </c>
@@ -18041,7 +18042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>605</v>
       </c>
@@ -18067,7 +18068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>606</v>
       </c>
@@ -18093,7 +18094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>607</v>
       </c>
@@ -18119,7 +18120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>608</v>
       </c>
@@ -18145,7 +18146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>609</v>
       </c>
@@ -18171,7 +18172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>610</v>
       </c>
@@ -18197,7 +18198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>611</v>
       </c>
@@ -18223,7 +18224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>612</v>
       </c>
@@ -18249,7 +18250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>613</v>
       </c>
@@ -18275,7 +18276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>614</v>
       </c>
@@ -18301,7 +18302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>615</v>
       </c>
@@ -18324,7 +18325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>616</v>
       </c>
@@ -18347,7 +18348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>617</v>
       </c>
@@ -18370,7 +18371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>618</v>
       </c>
@@ -18393,7 +18394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>619</v>
       </c>
@@ -18416,7 +18417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>620</v>
       </c>
@@ -18439,7 +18440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>621</v>
       </c>
@@ -18462,7 +18463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>622</v>
       </c>
@@ -18485,7 +18486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>623</v>
       </c>
@@ -18508,7 +18509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>624</v>
       </c>
@@ -18531,7 +18532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>625</v>
       </c>
@@ -18554,7 +18555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>626</v>
       </c>
@@ -18577,7 +18578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>627</v>
       </c>
@@ -18600,7 +18601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>628</v>
       </c>
@@ -18623,7 +18624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>629</v>
       </c>
@@ -18646,7 +18647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>630</v>
       </c>
@@ -18669,7 +18670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>631</v>
       </c>
@@ -18692,7 +18693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>632</v>
       </c>
@@ -18715,7 +18716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>633</v>
       </c>
@@ -18741,7 +18742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>634</v>
       </c>
@@ -18764,7 +18765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>635</v>
       </c>
@@ -18787,7 +18788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>636</v>
       </c>
@@ -18810,7 +18811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>637</v>
       </c>
@@ -18833,7 +18834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>638</v>
       </c>
@@ -18856,7 +18857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>639</v>
       </c>
@@ -18879,7 +18880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>640</v>
       </c>
@@ -18902,7 +18903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>641</v>
       </c>
@@ -18928,7 +18929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>642</v>
       </c>
@@ -18951,7 +18952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>643</v>
       </c>
@@ -18974,7 +18975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>644</v>
       </c>
@@ -18997,7 +18998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>645</v>
       </c>
@@ -19023,7 +19024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>646</v>
       </c>
@@ -19049,7 +19050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>647</v>
       </c>
@@ -19075,7 +19076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>648</v>
       </c>
@@ -19101,7 +19102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>649</v>
       </c>
@@ -19127,7 +19128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>650</v>
       </c>
@@ -19153,7 +19154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>651</v>
       </c>
@@ -19179,7 +19180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>652</v>
       </c>
@@ -19205,7 +19206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>653</v>
       </c>
@@ -19231,7 +19232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>654</v>
       </c>
@@ -19258,7 +19259,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I641"/>
+  <autoFilter ref="A1:I641" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result/verified/j30_Bimerge_BDD.xlsx
+++ b/result/verified/j30_Bimerge_BDD.xlsx
@@ -2805,9 +2805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A586" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H425" sqref="H425"/>
     </sheetView>
   </sheetViews>
@@ -2842,7 +2843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2868,7 +2869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2894,7 +2895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2920,7 +2921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2946,7 +2947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2998,7 +2999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -3050,7 +3051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3076,7 +3077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3102,7 +3103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3154,7 +3155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3180,7 +3181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -3206,7 +3207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3258,7 +3259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3284,7 +3285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -3310,7 +3311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3336,7 +3337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -3362,7 +3363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3388,7 +3389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -3414,7 +3415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -3440,7 +3441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -3466,7 +3467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -3492,7 +3493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -3518,7 +3519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -3544,7 +3545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -3596,7 +3597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -3700,7 +3701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -3726,7 +3727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -3752,7 +3753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -3778,7 +3779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -3804,7 +3805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -3830,7 +3831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -3856,7 +3857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -3882,7 +3883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -3908,7 +3909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -3934,7 +3935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -3960,7 +3961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -4012,7 +4013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -4064,7 +4065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -4090,7 +4091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -4116,7 +4117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -4142,7 +4143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -4194,7 +4195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -4220,7 +4221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -4246,7 +4247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -4272,7 +4273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -4298,7 +4299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -4324,7 +4325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -4350,7 +4351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -4428,7 +4429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -4454,7 +4455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -4480,7 +4481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -4506,7 +4507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -4532,7 +4533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -4558,7 +4559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -4584,7 +4585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -4610,7 +4611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -4636,7 +4637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -4662,7 +4663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -4688,7 +4689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -4714,7 +4715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -4740,7 +4741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -4792,7 +4793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -4818,7 +4819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>89</v>
       </c>
@@ -4844,7 +4845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -4870,7 +4871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -4896,7 +4897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>92</v>
       </c>
@@ -4922,7 +4923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -4948,7 +4949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>94</v>
       </c>
@@ -4974,7 +4975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -5000,7 +5001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>96</v>
       </c>
@@ -5026,7 +5027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>97</v>
       </c>
@@ -5052,7 +5053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -5078,7 +5079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>99</v>
       </c>
@@ -5104,7 +5105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>100</v>
       </c>
@@ -5130,7 +5131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>101</v>
       </c>
@@ -5156,7 +5157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>102</v>
       </c>
@@ -5182,7 +5183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -5208,7 +5209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -5234,7 +5235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>105</v>
       </c>
@@ -5260,7 +5261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -5286,7 +5287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>107</v>
       </c>
@@ -5312,7 +5313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -5338,7 +5339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>109</v>
       </c>
@@ -5364,7 +5365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>110</v>
       </c>
@@ -5390,7 +5391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -5416,7 +5417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -5442,7 +5443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -5465,7 +5466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>115</v>
       </c>
@@ -5488,7 +5489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -5511,7 +5512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -5534,7 +5535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>118</v>
       </c>
@@ -5557,7 +5558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>119</v>
       </c>
@@ -5580,7 +5581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>120</v>
       </c>
@@ -5603,7 +5604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>121</v>
       </c>
@@ -5626,7 +5627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>122</v>
       </c>
@@ -5649,7 +5650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -5672,7 +5673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>124</v>
       </c>
@@ -5698,7 +5699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -5724,7 +5725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>126</v>
       </c>
@@ -5750,7 +5751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -5776,7 +5777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>128</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>129</v>
       </c>
@@ -5828,7 +5829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>130</v>
       </c>
@@ -5854,7 +5855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>131</v>
       </c>
@@ -5880,7 +5881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>132</v>
       </c>
@@ -5906,7 +5907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>133</v>
       </c>
@@ -5932,7 +5933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>134</v>
       </c>
@@ -5958,7 +5959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>135</v>
       </c>
@@ -5984,7 +5985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>136</v>
       </c>
@@ -6010,7 +6011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>137</v>
       </c>
@@ -6036,7 +6037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>138</v>
       </c>
@@ -6062,7 +6063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>139</v>
       </c>
@@ -6088,7 +6089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>140</v>
       </c>
@@ -6114,7 +6115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>141</v>
       </c>
@@ -6140,7 +6141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>142</v>
       </c>
@@ -6166,7 +6167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>143</v>
       </c>
@@ -6192,7 +6193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>144</v>
       </c>
@@ -6218,7 +6219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>145</v>
       </c>
@@ -6244,7 +6245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>146</v>
       </c>
@@ -6270,7 +6271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>147</v>
       </c>
@@ -6296,7 +6297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>148</v>
       </c>
@@ -6322,7 +6323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>149</v>
       </c>
@@ -6348,7 +6349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>150</v>
       </c>
@@ -6374,7 +6375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>151</v>
       </c>
@@ -6400,7 +6401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>152</v>
       </c>
@@ -6426,7 +6427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>153</v>
       </c>
@@ -6452,7 +6453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>154</v>
       </c>
@@ -6478,7 +6479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>155</v>
       </c>
@@ -6504,7 +6505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>156</v>
       </c>
@@ -6530,7 +6531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>157</v>
       </c>
@@ -6556,7 +6557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>158</v>
       </c>
@@ -6582,7 +6583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>159</v>
       </c>
@@ -6608,7 +6609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>160</v>
       </c>
@@ -6634,7 +6635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>161</v>
       </c>
@@ -6660,7 +6661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>162</v>
       </c>
@@ -6686,7 +6687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>163</v>
       </c>
@@ -6712,7 +6713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>164</v>
       </c>
@@ -6738,7 +6739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>165</v>
       </c>
@@ -6764,7 +6765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>166</v>
       </c>
@@ -6790,7 +6791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>167</v>
       </c>
@@ -6816,7 +6817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>168</v>
       </c>
@@ -6842,7 +6843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>169</v>
       </c>
@@ -6868,7 +6869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>170</v>
       </c>
@@ -6894,7 +6895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>171</v>
       </c>
@@ -6920,7 +6921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>172</v>
       </c>
@@ -6946,7 +6947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>173</v>
       </c>
@@ -6972,7 +6973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>174</v>
       </c>
@@ -6998,7 +6999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>175</v>
       </c>
@@ -7024,7 +7025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>176</v>
       </c>
@@ -7050,7 +7051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>177</v>
       </c>
@@ -7076,7 +7077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>178</v>
       </c>
@@ -7102,7 +7103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>179</v>
       </c>
@@ -7128,7 +7129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>180</v>
       </c>
@@ -7154,7 +7155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>181</v>
       </c>
@@ -7180,7 +7181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>182</v>
       </c>
@@ -7206,7 +7207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>183</v>
       </c>
@@ -7232,7 +7233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>184</v>
       </c>
@@ -7258,7 +7259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>185</v>
       </c>
@@ -7284,7 +7285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>186</v>
       </c>
@@ -7310,7 +7311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>187</v>
       </c>
@@ -7336,7 +7337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>188</v>
       </c>
@@ -7362,7 +7363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>189</v>
       </c>
@@ -7388,7 +7389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>190</v>
       </c>
@@ -7414,7 +7415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>191</v>
       </c>
@@ -7440,7 +7441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>192</v>
       </c>
@@ -7466,7 +7467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>193</v>
       </c>
@@ -7492,7 +7493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>194</v>
       </c>
@@ -7518,7 +7519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>195</v>
       </c>
@@ -7544,7 +7545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>196</v>
       </c>
@@ -7570,7 +7571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>197</v>
       </c>
@@ -7596,7 +7597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>198</v>
       </c>
@@ -7622,7 +7623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>199</v>
       </c>
@@ -7648,7 +7649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>200</v>
       </c>
@@ -7674,7 +7675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>201</v>
       </c>
@@ -7700,7 +7701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>202</v>
       </c>
@@ -7726,7 +7727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>203</v>
       </c>
@@ -7752,7 +7753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>204</v>
       </c>
@@ -7778,7 +7779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>205</v>
       </c>
@@ -7804,7 +7805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>206</v>
       </c>
@@ -7830,7 +7831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>207</v>
       </c>
@@ -7856,7 +7857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>208</v>
       </c>
@@ -7882,7 +7883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>209</v>
       </c>
@@ -7908,7 +7909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>210</v>
       </c>
@@ -7934,7 +7935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>211</v>
       </c>
@@ -7960,7 +7961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>212</v>
       </c>
@@ -7986,7 +7987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>213</v>
       </c>
@@ -8012,7 +8013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>214</v>
       </c>
@@ -8038,7 +8039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>215</v>
       </c>
@@ -8064,7 +8065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>216</v>
       </c>
@@ -8090,7 +8091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>217</v>
       </c>
@@ -8116,7 +8117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>218</v>
       </c>
@@ -8142,7 +8143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>219</v>
       </c>
@@ -8168,7 +8169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>220</v>
       </c>
@@ -8194,7 +8195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>221</v>
       </c>
@@ -8220,7 +8221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>222</v>
       </c>
@@ -8246,7 +8247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>223</v>
       </c>
@@ -8272,7 +8273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>224</v>
       </c>
@@ -8295,7 +8296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>225</v>
       </c>
@@ -8318,7 +8319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>226</v>
       </c>
@@ -8341,7 +8342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>227</v>
       </c>
@@ -8364,7 +8365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>228</v>
       </c>
@@ -8387,7 +8388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>229</v>
       </c>
@@ -8410,7 +8411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>230</v>
       </c>
@@ -8433,7 +8434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>231</v>
       </c>
@@ -8456,7 +8457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>232</v>
       </c>
@@ -8479,7 +8480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>233</v>
       </c>
@@ -8502,7 +8503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>234</v>
       </c>
@@ -8528,7 +8529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>235</v>
       </c>
@@ -8554,7 +8555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>236</v>
       </c>
@@ -8580,7 +8581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>237</v>
       </c>
@@ -8606,7 +8607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>238</v>
       </c>
@@ -8632,7 +8633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>239</v>
       </c>
@@ -8658,7 +8659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>240</v>
       </c>
@@ -8684,7 +8685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>241</v>
       </c>
@@ -8710,7 +8711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>242</v>
       </c>
@@ -8736,7 +8737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>243</v>
       </c>
@@ -8762,7 +8763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>244</v>
       </c>
@@ -8788,7 +8789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>245</v>
       </c>
@@ -8814,7 +8815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>246</v>
       </c>
@@ -8840,7 +8841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>247</v>
       </c>
@@ -8866,7 +8867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>248</v>
       </c>
@@ -8892,7 +8893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>249</v>
       </c>
@@ -8918,7 +8919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>250</v>
       </c>
@@ -8944,7 +8945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>251</v>
       </c>
@@ -8970,7 +8971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>252</v>
       </c>
@@ -8996,7 +8997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>253</v>
       </c>
@@ -9022,7 +9023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>254</v>
       </c>
@@ -9048,7 +9049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>255</v>
       </c>
@@ -9074,7 +9075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>256</v>
       </c>
@@ -9100,7 +9101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>257</v>
       </c>
@@ -9126,7 +9127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>258</v>
       </c>
@@ -9152,7 +9153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>259</v>
       </c>
@@ -9178,7 +9179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>260</v>
       </c>
@@ -9204,7 +9205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>261</v>
       </c>
@@ -9230,7 +9231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>262</v>
       </c>
@@ -9256,7 +9257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>263</v>
       </c>
@@ -9282,7 +9283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>264</v>
       </c>
@@ -9308,7 +9309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>265</v>
       </c>
@@ -9334,7 +9335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>266</v>
       </c>
@@ -9360,7 +9361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>267</v>
       </c>
@@ -9386,7 +9387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>268</v>
       </c>
@@ -9412,7 +9413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>269</v>
       </c>
@@ -9438,7 +9439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>270</v>
       </c>
@@ -9464,7 +9465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>271</v>
       </c>
@@ -9490,7 +9491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>272</v>
       </c>
@@ -9516,7 +9517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>273</v>
       </c>
@@ -9542,7 +9543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>274</v>
       </c>
@@ -9568,7 +9569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>275</v>
       </c>
@@ -9594,7 +9595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>276</v>
       </c>
@@ -9620,7 +9621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>277</v>
       </c>
@@ -9646,7 +9647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>278</v>
       </c>
@@ -9672,7 +9673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>279</v>
       </c>
@@ -9698,7 +9699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>280</v>
       </c>
@@ -9724,7 +9725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>281</v>
       </c>
@@ -9750,7 +9751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>282</v>
       </c>
@@ -9776,7 +9777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>283</v>
       </c>
@@ -9802,7 +9803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>284</v>
       </c>
@@ -9828,7 +9829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>285</v>
       </c>
@@ -9854,7 +9855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>286</v>
       </c>
@@ -9880,7 +9881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>287</v>
       </c>
@@ -9906,7 +9907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>288</v>
       </c>
@@ -9932,7 +9933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>289</v>
       </c>
@@ -9958,7 +9959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>290</v>
       </c>
@@ -9984,7 +9985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>291</v>
       </c>
@@ -10010,7 +10011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>292</v>
       </c>
@@ -10036,7 +10037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>293</v>
       </c>
@@ -10062,7 +10063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>294</v>
       </c>
@@ -10085,7 +10086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>295</v>
       </c>
@@ -10108,7 +10109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>296</v>
       </c>
@@ -10131,7 +10132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>297</v>
       </c>
@@ -10154,7 +10155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>298</v>
       </c>
@@ -10177,7 +10178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>299</v>
       </c>
@@ -10200,7 +10201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>300</v>
       </c>
@@ -10223,7 +10224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>301</v>
       </c>
@@ -10246,7 +10247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>302</v>
       </c>
@@ -10269,7 +10270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>303</v>
       </c>
@@ -10434,7 +10435,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>310</v>
       </c>
@@ -10460,7 +10461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>311</v>
       </c>
@@ -10567,7 +10568,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>315</v>
       </c>
@@ -10593,7 +10594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>316</v>
       </c>
@@ -10619,7 +10620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>317</v>
       </c>
@@ -10645,7 +10646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>318</v>
       </c>
@@ -10671,7 +10672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>319</v>
       </c>
@@ -10697,7 +10698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>320</v>
       </c>
@@ -10723,7 +10724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>321</v>
       </c>
@@ -10749,7 +10750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>322</v>
       </c>
@@ -10775,7 +10776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>323</v>
       </c>
@@ -10801,7 +10802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>324</v>
       </c>
@@ -10827,7 +10828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>325</v>
       </c>
@@ -10853,7 +10854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>326</v>
       </c>
@@ -10879,7 +10880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>327</v>
       </c>
@@ -10905,7 +10906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>328</v>
       </c>
@@ -10931,7 +10932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>329</v>
       </c>
@@ -10957,7 +10958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>330</v>
       </c>
@@ -10983,7 +10984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>331</v>
       </c>
@@ -11009,7 +11010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>332</v>
       </c>
@@ -11035,7 +11036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>333</v>
       </c>
@@ -11061,7 +11062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>334</v>
       </c>
@@ -11087,7 +11088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>335</v>
       </c>
@@ -11110,7 +11111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>336</v>
       </c>
@@ -11133,7 +11134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>337</v>
       </c>
@@ -11156,7 +11157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>338</v>
       </c>
@@ -11179,7 +11180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>339</v>
       </c>
@@ -11202,7 +11203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>340</v>
       </c>
@@ -11225,7 +11226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>341</v>
       </c>
@@ -11248,7 +11249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>342</v>
       </c>
@@ -11271,7 +11272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>343</v>
       </c>
@@ -11294,7 +11295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>344</v>
       </c>
@@ -11317,7 +11318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>345</v>
       </c>
@@ -11343,7 +11344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>346</v>
       </c>
@@ -11369,7 +11370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>347</v>
       </c>
@@ -11395,7 +11396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>348</v>
       </c>
@@ -11421,7 +11422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>349</v>
       </c>
@@ -11447,7 +11448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>350</v>
       </c>
@@ -11473,7 +11474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>351</v>
       </c>
@@ -11499,7 +11500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>352</v>
       </c>
@@ -11525,7 +11526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>353</v>
       </c>
@@ -11551,7 +11552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>354</v>
       </c>
@@ -11577,7 +11578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>355</v>
       </c>
@@ -11603,7 +11604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>356</v>
       </c>
@@ -11629,7 +11630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>357</v>
       </c>
@@ -11655,7 +11656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>358</v>
       </c>
@@ -11681,7 +11682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>359</v>
       </c>
@@ -11707,7 +11708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>360</v>
       </c>
@@ -11733,7 +11734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>361</v>
       </c>
@@ -11759,7 +11760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>362</v>
       </c>
@@ -11785,7 +11786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>363</v>
       </c>
@@ -11811,7 +11812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>364</v>
       </c>
@@ -11837,7 +11838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>365</v>
       </c>
@@ -11863,7 +11864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>366</v>
       </c>
@@ -11889,7 +11890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>367</v>
       </c>
@@ -11915,7 +11916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>368</v>
       </c>
@@ -11941,7 +11942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>369</v>
       </c>
@@ -11967,7 +11968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>370</v>
       </c>
@@ -11993,7 +11994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>371</v>
       </c>
@@ -12019,7 +12020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>372</v>
       </c>
@@ -12045,7 +12046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>373</v>
       </c>
@@ -12071,7 +12072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>374</v>
       </c>
@@ -12097,7 +12098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>375</v>
       </c>
@@ -12123,7 +12124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>376</v>
       </c>
@@ -12149,7 +12150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>377</v>
       </c>
@@ -12175,7 +12176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>378</v>
       </c>
@@ -12201,7 +12202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>379</v>
       </c>
@@ -12227,7 +12228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>380</v>
       </c>
@@ -12253,7 +12254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>381</v>
       </c>
@@ -12279,7 +12280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>382</v>
       </c>
@@ -12305,7 +12306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>383</v>
       </c>
@@ -12331,7 +12332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>384</v>
       </c>
@@ -12357,7 +12358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>385</v>
       </c>
@@ -12383,7 +12384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>386</v>
       </c>
@@ -12409,7 +12410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>387</v>
       </c>
@@ -12435,7 +12436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>388</v>
       </c>
@@ -12461,7 +12462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>389</v>
       </c>
@@ -12487,7 +12488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>390</v>
       </c>
@@ -12513,7 +12514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>391</v>
       </c>
@@ -12539,7 +12540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>392</v>
       </c>
@@ -12565,7 +12566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>393</v>
       </c>
@@ -12591,7 +12592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>394</v>
       </c>
@@ -12756,7 +12757,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>400</v>
       </c>
@@ -12811,7 +12812,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>402</v>
       </c>
@@ -12895,7 +12896,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>405</v>
       </c>
@@ -12921,7 +12922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>406</v>
       </c>
@@ -12947,7 +12948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>407</v>
       </c>
@@ -12973,7 +12974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>408</v>
       </c>
@@ -12999,7 +13000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>409</v>
       </c>
@@ -13025,7 +13026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>410</v>
       </c>
@@ -13051,7 +13052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>411</v>
       </c>
@@ -13077,7 +13078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>412</v>
       </c>
@@ -13103,7 +13104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>413</v>
       </c>
@@ -13129,7 +13130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>414</v>
       </c>
@@ -13155,7 +13156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>415</v>
       </c>
@@ -13181,7 +13182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>416</v>
       </c>
@@ -13207,7 +13208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>417</v>
       </c>
@@ -13233,7 +13234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>418</v>
       </c>
@@ -13259,7 +13260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>419</v>
       </c>
@@ -13285,7 +13286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>420</v>
       </c>
@@ -13311,7 +13312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>421</v>
       </c>
@@ -13337,7 +13338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>422</v>
       </c>
@@ -13363,7 +13364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>423</v>
       </c>
@@ -13389,7 +13390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>424</v>
       </c>
@@ -13415,7 +13416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>425</v>
       </c>
@@ -13441,7 +13442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>426</v>
       </c>
@@ -13467,7 +13468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>427</v>
       </c>
@@ -13493,7 +13494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>428</v>
       </c>
@@ -13519,7 +13520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>429</v>
       </c>
@@ -13545,7 +13546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>430</v>
       </c>
@@ -13571,7 +13572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>431</v>
       </c>
@@ -13597,7 +13598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>432</v>
       </c>
@@ -13623,7 +13624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>433</v>
       </c>
@@ -13649,7 +13650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>434</v>
       </c>
@@ -13675,7 +13676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>435</v>
       </c>
@@ -13701,7 +13702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>436</v>
       </c>
@@ -13727,7 +13728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>437</v>
       </c>
@@ -13753,7 +13754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>438</v>
       </c>
@@ -13779,7 +13780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>439</v>
       </c>
@@ -13805,7 +13806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>440</v>
       </c>
@@ -13831,7 +13832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>441</v>
       </c>
@@ -13857,7 +13858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>442</v>
       </c>
@@ -13883,7 +13884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>443</v>
       </c>
@@ -13909,7 +13910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>444</v>
       </c>
@@ -13935,7 +13936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>445</v>
       </c>
@@ -13958,7 +13959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>446</v>
       </c>
@@ -13981,7 +13982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>447</v>
       </c>
@@ -14004,7 +14005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>448</v>
       </c>
@@ -14027,7 +14028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>449</v>
       </c>
@@ -14050,7 +14051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>450</v>
       </c>
@@ -14073,7 +14074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>451</v>
       </c>
@@ -14096,7 +14097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>452</v>
       </c>
@@ -14119,7 +14120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>453</v>
       </c>
@@ -14142,7 +14143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>454</v>
       </c>
@@ -14165,7 +14166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>455</v>
       </c>
@@ -14191,7 +14192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>456</v>
       </c>
@@ -14217,7 +14218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>457</v>
       </c>
@@ -14243,7 +14244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>458</v>
       </c>
@@ -14269,7 +14270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>459</v>
       </c>
@@ -14295,7 +14296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>460</v>
       </c>
@@ -14321,7 +14322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>461</v>
       </c>
@@ -14347,7 +14348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>462</v>
       </c>
@@ -14373,7 +14374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>463</v>
       </c>
@@ -14399,7 +14400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>464</v>
       </c>
@@ -14425,7 +14426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>465</v>
       </c>
@@ -14451,7 +14452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>466</v>
       </c>
@@ -14477,7 +14478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>467</v>
       </c>
@@ -14503,7 +14504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>468</v>
       </c>
@@ -14529,7 +14530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>469</v>
       </c>
@@ -14555,7 +14556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>470</v>
       </c>
@@ -14581,7 +14582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>471</v>
       </c>
@@ -14607,7 +14608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>472</v>
       </c>
@@ -14633,7 +14634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>473</v>
       </c>
@@ -14659,7 +14660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>474</v>
       </c>
@@ -14685,7 +14686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>475</v>
       </c>
@@ -14711,7 +14712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>476</v>
       </c>
@@ -14737,7 +14738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>477</v>
       </c>
@@ -14763,7 +14764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>478</v>
       </c>
@@ -14789,7 +14790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>479</v>
       </c>
@@ -14815,7 +14816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>480</v>
       </c>
@@ -14841,7 +14842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>481</v>
       </c>
@@ -14867,7 +14868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>482</v>
       </c>
@@ -14893,7 +14894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>483</v>
       </c>
@@ -14919,7 +14920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>484</v>
       </c>
@@ -14945,7 +14946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>485</v>
       </c>
@@ -14971,7 +14972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>486</v>
       </c>
@@ -14997,7 +14998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>487</v>
       </c>
@@ -15023,7 +15024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>488</v>
       </c>
@@ -15049,7 +15050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>489</v>
       </c>
@@ -15104,7 +15105,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>491</v>
       </c>
@@ -15185,7 +15186,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>494</v>
       </c>
@@ -15211,7 +15212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>495</v>
       </c>
@@ -15237,7 +15238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>496</v>
       </c>
@@ -15263,7 +15264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>497</v>
       </c>
@@ -15289,7 +15290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>498</v>
       </c>
@@ -15315,7 +15316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>499</v>
       </c>
@@ -15341,7 +15342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>500</v>
       </c>
@@ -15367,7 +15368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>501</v>
       </c>
@@ -15393,7 +15394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>502</v>
       </c>
@@ -15419,7 +15420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>503</v>
       </c>
@@ -15445,7 +15446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>504</v>
       </c>
@@ -15471,7 +15472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>505</v>
       </c>
@@ -15497,7 +15498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>506</v>
       </c>
@@ -15523,7 +15524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>507</v>
       </c>
@@ -15549,7 +15550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>508</v>
       </c>
@@ -15575,7 +15576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>509</v>
       </c>
@@ -15601,7 +15602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>510</v>
       </c>
@@ -15627,7 +15628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>511</v>
       </c>
@@ -15653,7 +15654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>512</v>
       </c>
@@ -15679,7 +15680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>513</v>
       </c>
@@ -15705,7 +15706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>514</v>
       </c>
@@ -15731,7 +15732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>515</v>
       </c>
@@ -15757,7 +15758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>516</v>
       </c>
@@ -15783,7 +15784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>517</v>
       </c>
@@ -15809,7 +15810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>518</v>
       </c>
@@ -15835,7 +15836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>519</v>
       </c>
@@ -15861,7 +15862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>520</v>
       </c>
@@ -15887,7 +15888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>521</v>
       </c>
@@ -15913,7 +15914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>522</v>
       </c>
@@ -15939,7 +15940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>523</v>
       </c>
@@ -15965,7 +15966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>524</v>
       </c>
@@ -15991,7 +15992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>525</v>
       </c>
@@ -16017,7 +16018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>526</v>
       </c>
@@ -16043,7 +16044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>527</v>
       </c>
@@ -16069,7 +16070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>528</v>
       </c>
@@ -16095,7 +16096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>529</v>
       </c>
@@ -16121,7 +16122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>530</v>
       </c>
@@ -16147,7 +16148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>531</v>
       </c>
@@ -16173,7 +16174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>532</v>
       </c>
@@ -16199,7 +16200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>533</v>
       </c>
@@ -16225,7 +16226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>534</v>
       </c>
@@ -16251,7 +16252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>535</v>
       </c>
@@ -16277,7 +16278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>536</v>
       </c>
@@ -16303,7 +16304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>537</v>
       </c>
@@ -16329,7 +16330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>538</v>
       </c>
@@ -16355,7 +16356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>539</v>
       </c>
@@ -16381,7 +16382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>540</v>
       </c>
@@ -16407,7 +16408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>541</v>
       </c>
@@ -16433,7 +16434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>542</v>
       </c>
@@ -16459,7 +16460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>543</v>
       </c>
@@ -16485,7 +16486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>544</v>
       </c>
@@ -16511,7 +16512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>545</v>
       </c>
@@ -16537,7 +16538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>546</v>
       </c>
@@ -16563,7 +16564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>547</v>
       </c>
@@ -16589,7 +16590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>548</v>
       </c>
@@ -16615,7 +16616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>549</v>
       </c>
@@ -16641,7 +16642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>550</v>
       </c>
@@ -16667,7 +16668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>551</v>
       </c>
@@ -16693,7 +16694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>552</v>
       </c>
@@ -16719,7 +16720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>553</v>
       </c>
@@ -16745,7 +16746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>554</v>
       </c>
@@ -16771,7 +16772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>555</v>
       </c>
@@ -16794,7 +16795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>556</v>
       </c>
@@ -16817,7 +16818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>557</v>
       </c>
@@ -16840,7 +16841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>558</v>
       </c>
@@ -16863,7 +16864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>559</v>
       </c>
@@ -16886,7 +16887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>560</v>
       </c>
@@ -16909,7 +16910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>561</v>
       </c>
@@ -16932,7 +16933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>562</v>
       </c>
@@ -16955,7 +16956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>563</v>
       </c>
@@ -16978,7 +16979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>564</v>
       </c>
@@ -17001,7 +17002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>565</v>
       </c>
@@ -17027,7 +17028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>566</v>
       </c>
@@ -17053,7 +17054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>567</v>
       </c>
@@ -17079,7 +17080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>568</v>
       </c>
@@ -17105,7 +17106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>569</v>
       </c>
@@ -17131,7 +17132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>570</v>
       </c>
@@ -17157,7 +17158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>571</v>
       </c>
@@ -17183,7 +17184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>572</v>
       </c>
@@ -17209,7 +17210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>573</v>
       </c>
@@ -17235,7 +17236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>574</v>
       </c>
@@ -17261,7 +17262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>575</v>
       </c>
@@ -17287,7 +17288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>576</v>
       </c>
@@ -17313,7 +17314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>577</v>
       </c>
@@ -17339,7 +17340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>578</v>
       </c>
@@ -17365,7 +17366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>579</v>
       </c>
@@ -17391,7 +17392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>580</v>
       </c>
@@ -17417,7 +17418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>581</v>
       </c>
@@ -17443,7 +17444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>582</v>
       </c>
@@ -17469,7 +17470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>583</v>
       </c>
@@ -17495,7 +17496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>584</v>
       </c>
@@ -17521,7 +17522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>585</v>
       </c>
@@ -17547,7 +17548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>586</v>
       </c>
@@ -17573,7 +17574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>587</v>
       </c>
@@ -17599,7 +17600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>588</v>
       </c>
@@ -17625,7 +17626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>589</v>
       </c>
@@ -17651,7 +17652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>590</v>
       </c>
@@ -17677,7 +17678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>591</v>
       </c>
@@ -17703,7 +17704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>592</v>
       </c>
@@ -17729,7 +17730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>593</v>
       </c>
@@ -17755,7 +17756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>594</v>
       </c>
@@ -17781,7 +17782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>595</v>
       </c>
@@ -17807,7 +17808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>596</v>
       </c>
@@ -17833,7 +17834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>597</v>
       </c>
@@ -17859,7 +17860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>598</v>
       </c>
@@ -17885,7 +17886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>599</v>
       </c>
@@ -17911,7 +17912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>600</v>
       </c>
@@ -17937,7 +17938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>601</v>
       </c>
@@ -17963,7 +17964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>602</v>
       </c>
@@ -17989,7 +17990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>603</v>
       </c>
@@ -18015,7 +18016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>604</v>
       </c>
@@ -18041,7 +18042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>605</v>
       </c>
@@ -18067,7 +18068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>606</v>
       </c>
@@ -18093,7 +18094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>607</v>
       </c>
@@ -18119,7 +18120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>608</v>
       </c>
@@ -18145,7 +18146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>609</v>
       </c>
@@ -18171,7 +18172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>610</v>
       </c>
@@ -18197,7 +18198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>611</v>
       </c>
@@ -18223,7 +18224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>612</v>
       </c>
@@ -18249,7 +18250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>613</v>
       </c>
@@ -18275,7 +18276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>614</v>
       </c>
@@ -18301,7 +18302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>615</v>
       </c>
@@ -18324,7 +18325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>616</v>
       </c>
@@ -18347,7 +18348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>617</v>
       </c>
@@ -18370,7 +18371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>618</v>
       </c>
@@ -18393,7 +18394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>619</v>
       </c>
@@ -18416,7 +18417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>620</v>
       </c>
@@ -18439,7 +18440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>621</v>
       </c>
@@ -18462,7 +18463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>622</v>
       </c>
@@ -18485,7 +18486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>623</v>
       </c>
@@ -18508,7 +18509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>624</v>
       </c>
@@ -18531,7 +18532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>625</v>
       </c>
@@ -18554,7 +18555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>626</v>
       </c>
@@ -18577,7 +18578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>627</v>
       </c>
@@ -18600,7 +18601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>628</v>
       </c>
@@ -18623,7 +18624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>629</v>
       </c>
@@ -18646,7 +18647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>630</v>
       </c>
@@ -18669,7 +18670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>631</v>
       </c>
@@ -18692,7 +18693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>632</v>
       </c>
@@ -18715,7 +18716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>633</v>
       </c>
@@ -18741,7 +18742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>634</v>
       </c>
@@ -18764,7 +18765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>635</v>
       </c>
@@ -18787,7 +18788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>636</v>
       </c>
@@ -18810,7 +18811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>637</v>
       </c>
@@ -18833,7 +18834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>638</v>
       </c>
@@ -18856,7 +18857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>639</v>
       </c>
@@ -18879,7 +18880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>640</v>
       </c>
@@ -18902,7 +18903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>641</v>
       </c>
@@ -18928,7 +18929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>642</v>
       </c>
@@ -18951,7 +18952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>643</v>
       </c>
@@ -18974,7 +18975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>644</v>
       </c>
@@ -18997,7 +18998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>645</v>
       </c>
@@ -19023,7 +19024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>646</v>
       </c>
@@ -19049,7 +19050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>647</v>
       </c>
@@ -19075,7 +19076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>648</v>
       </c>
@@ -19101,7 +19102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>649</v>
       </c>
@@ -19127,7 +19128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>650</v>
       </c>
@@ -19153,7 +19154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>651</v>
       </c>
@@ -19179,7 +19180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>652</v>
       </c>
@@ -19205,7 +19206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>653</v>
       </c>
@@ -19231,7 +19232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>654</v>
       </c>
@@ -19258,7 +19259,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I641"/>
+  <autoFilter ref="A1:I641">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Feasible"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result/verified/j30_Bimerge_BDD.xlsx
+++ b/result/verified/j30_Bimerge_BDD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15" conformance="strict">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="153222"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\MRCPSPTest\result\verified\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\MRCPSPTest\result\verified\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{607C8F06-7F6A-482E-944C-EA2BB7001762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10080" windowHeight="10215"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MRCPSP_j30_results_20250909_005" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1942" uniqueCount="655">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1929" uniqueCount="654">
   <si>
     <t>instance</t>
   </si>
@@ -942,9 +943,6 @@
   </si>
   <si>
     <t>j3037_1.mm</t>
-  </si>
-  <si>
-    <t>wall-time kill (parent)</t>
   </si>
   <si>
     <t>j3037_10.mm</t>
@@ -1997,7 +1995,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2804,17 +2802,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I641"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H425" sqref="H425"/>
+    <sheetView tabSelected="1" topLeftCell="A393" workbookViewId="0">
+      <selection activeCell="E293" sqref="E293"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2843,7 +2840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2869,7 +2866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2895,7 +2892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2921,7 +2918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2947,7 +2944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2973,7 +2970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2999,7 +2996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3025,7 +3022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -3051,7 +3048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3077,7 +3074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3103,7 +3100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3129,7 +3126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3155,7 +3152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3181,7 +3178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -3207,7 +3204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -3233,7 +3230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3259,7 +3256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3285,7 +3282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -3311,7 +3308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3337,7 +3334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -3363,7 +3360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3389,7 +3386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -3415,7 +3412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -3441,7 +3438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -3467,7 +3464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -3493,7 +3490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -3519,7 +3516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -3545,7 +3542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -3571,7 +3568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -3597,7 +3594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -3623,7 +3620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -3649,7 +3646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3657,25 +3654,25 @@
         <v>232</v>
       </c>
       <c r="C33">
-        <v>408399</v>
+        <v>400102</v>
       </c>
       <c r="D33">
-        <v>1613411</v>
+        <v>1568177</v>
       </c>
       <c r="E33">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G33">
-        <v>714.65</v>
+        <v>1156.55</v>
       </c>
       <c r="H33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -3701,7 +3698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -3727,7 +3724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -3753,7 +3750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -3779,7 +3776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -3805,7 +3802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -3831,7 +3828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -3857,7 +3854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -3883,7 +3880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -3909,7 +3906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -3935,7 +3932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -3961,7 +3958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -3987,7 +3984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -4013,7 +4010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -4039,7 +4036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -4065,7 +4062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -4091,7 +4088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -4117,7 +4114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -4143,7 +4140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -4169,7 +4166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -4195,7 +4192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -4221,7 +4218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -4247,7 +4244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -4273,7 +4270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -4299,7 +4296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -4325,7 +4322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -4351,7 +4348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -4377,7 +4374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -4403,7 +4400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -4429,7 +4426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -4455,7 +4452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -4481,7 +4478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -4507,7 +4504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -4533,7 +4530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -4559,7 +4556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -4585,7 +4582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -4611,7 +4608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -4637,7 +4634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -4663,7 +4660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -4689,7 +4686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -4715,7 +4712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -4741,7 +4738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -4767,7 +4764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -4793,7 +4790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -4819,7 +4816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>89</v>
       </c>
@@ -4845,7 +4842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -4871,7 +4868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -4897,7 +4894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>92</v>
       </c>
@@ -4923,7 +4920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -4949,7 +4946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>94</v>
       </c>
@@ -4975,7 +4972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -5001,7 +4998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>96</v>
       </c>
@@ -5027,7 +5024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>97</v>
       </c>
@@ -5053,7 +5050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -5079,7 +5076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>99</v>
       </c>
@@ -5105,7 +5102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>100</v>
       </c>
@@ -5131,7 +5128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>101</v>
       </c>
@@ -5157,7 +5154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>102</v>
       </c>
@@ -5183,7 +5180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -5209,7 +5206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -5235,7 +5232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>105</v>
       </c>
@@ -5261,7 +5258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -5287,7 +5284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>107</v>
       </c>
@@ -5313,7 +5310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -5339,7 +5336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>109</v>
       </c>
@@ -5365,7 +5362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>110</v>
       </c>
@@ -5391,7 +5388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -5417,7 +5414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -5443,7 +5440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -5466,7 +5463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>115</v>
       </c>
@@ -5489,7 +5486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -5512,7 +5509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -5535,7 +5532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>118</v>
       </c>
@@ -5558,7 +5555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>119</v>
       </c>
@@ -5581,7 +5578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>120</v>
       </c>
@@ -5604,7 +5601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>121</v>
       </c>
@@ -5627,7 +5624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>122</v>
       </c>
@@ -5650,7 +5647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -5673,7 +5670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>124</v>
       </c>
@@ -5699,7 +5696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -5725,7 +5722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>126</v>
       </c>
@@ -5751,7 +5748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -5777,7 +5774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>128</v>
       </c>
@@ -5803,7 +5800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>129</v>
       </c>
@@ -5829,7 +5826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>130</v>
       </c>
@@ -5855,7 +5852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>131</v>
       </c>
@@ -5881,7 +5878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>132</v>
       </c>
@@ -5907,7 +5904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>133</v>
       </c>
@@ -5933,7 +5930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>134</v>
       </c>
@@ -5959,7 +5956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>135</v>
       </c>
@@ -5985,7 +5982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>136</v>
       </c>
@@ -6011,7 +6008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>137</v>
       </c>
@@ -6037,7 +6034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>138</v>
       </c>
@@ -6063,7 +6060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>139</v>
       </c>
@@ -6089,7 +6086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>140</v>
       </c>
@@ -6115,7 +6112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>141</v>
       </c>
@@ -6141,7 +6138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>142</v>
       </c>
@@ -6167,7 +6164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>143</v>
       </c>
@@ -6193,7 +6190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>144</v>
       </c>
@@ -6219,7 +6216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>145</v>
       </c>
@@ -6245,7 +6242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>146</v>
       </c>
@@ -6271,7 +6268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>147</v>
       </c>
@@ -6297,7 +6294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>148</v>
       </c>
@@ -6323,7 +6320,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>149</v>
       </c>
@@ -6349,7 +6346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>150</v>
       </c>
@@ -6375,7 +6372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>151</v>
       </c>
@@ -6401,7 +6398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>152</v>
       </c>
@@ -6427,7 +6424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>153</v>
       </c>
@@ -6453,7 +6450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>154</v>
       </c>
@@ -6479,7 +6476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>155</v>
       </c>
@@ -6505,7 +6502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>156</v>
       </c>
@@ -6531,7 +6528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>157</v>
       </c>
@@ -6557,7 +6554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>158</v>
       </c>
@@ -6583,7 +6580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>159</v>
       </c>
@@ -6609,7 +6606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>160</v>
       </c>
@@ -6635,7 +6632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>161</v>
       </c>
@@ -6661,7 +6658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>162</v>
       </c>
@@ -6687,7 +6684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>163</v>
       </c>
@@ -6713,7 +6710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>164</v>
       </c>
@@ -6739,7 +6736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>165</v>
       </c>
@@ -6765,7 +6762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>166</v>
       </c>
@@ -6791,7 +6788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>167</v>
       </c>
@@ -6817,7 +6814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>168</v>
       </c>
@@ -6843,7 +6840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>169</v>
       </c>
@@ -6869,7 +6866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>170</v>
       </c>
@@ -6895,7 +6892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>171</v>
       </c>
@@ -6921,7 +6918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>172</v>
       </c>
@@ -6947,7 +6944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>173</v>
       </c>
@@ -6973,7 +6970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>174</v>
       </c>
@@ -6999,7 +6996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>175</v>
       </c>
@@ -7025,7 +7022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>176</v>
       </c>
@@ -7051,7 +7048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>177</v>
       </c>
@@ -7077,7 +7074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>178</v>
       </c>
@@ -7103,7 +7100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>179</v>
       </c>
@@ -7129,7 +7126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>180</v>
       </c>
@@ -7155,7 +7152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>181</v>
       </c>
@@ -7181,7 +7178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>182</v>
       </c>
@@ -7207,7 +7204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>183</v>
       </c>
@@ -7233,7 +7230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>184</v>
       </c>
@@ -7259,7 +7256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>185</v>
       </c>
@@ -7285,7 +7282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>186</v>
       </c>
@@ -7311,7 +7308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>187</v>
       </c>
@@ -7337,7 +7334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>188</v>
       </c>
@@ -7363,7 +7360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>189</v>
       </c>
@@ -7389,7 +7386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>190</v>
       </c>
@@ -7415,7 +7412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>191</v>
       </c>
@@ -7441,7 +7438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>192</v>
       </c>
@@ -7467,7 +7464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>193</v>
       </c>
@@ -7493,7 +7490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>194</v>
       </c>
@@ -7519,7 +7516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>195</v>
       </c>
@@ -7545,7 +7542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>196</v>
       </c>
@@ -7571,7 +7568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>197</v>
       </c>
@@ -7597,7 +7594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>198</v>
       </c>
@@ -7623,7 +7620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>199</v>
       </c>
@@ -7649,7 +7646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>200</v>
       </c>
@@ -7675,7 +7672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>201</v>
       </c>
@@ -7701,7 +7698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>202</v>
       </c>
@@ -7727,7 +7724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>203</v>
       </c>
@@ -7753,7 +7750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>204</v>
       </c>
@@ -7779,7 +7776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>205</v>
       </c>
@@ -7805,7 +7802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>206</v>
       </c>
@@ -7831,7 +7828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>207</v>
       </c>
@@ -7857,7 +7854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>208</v>
       </c>
@@ -7883,7 +7880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>209</v>
       </c>
@@ -7909,7 +7906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>210</v>
       </c>
@@ -7935,7 +7932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>211</v>
       </c>
@@ -7961,7 +7958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>212</v>
       </c>
@@ -7987,7 +7984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>213</v>
       </c>
@@ -8013,7 +8010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>214</v>
       </c>
@@ -8039,7 +8036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>215</v>
       </c>
@@ -8065,7 +8062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>216</v>
       </c>
@@ -8091,7 +8088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>217</v>
       </c>
@@ -8117,7 +8114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>218</v>
       </c>
@@ -8143,7 +8140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>219</v>
       </c>
@@ -8169,7 +8166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>220</v>
       </c>
@@ -8195,7 +8192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>221</v>
       </c>
@@ -8221,7 +8218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>222</v>
       </c>
@@ -8247,7 +8244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>223</v>
       </c>
@@ -8273,7 +8270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>224</v>
       </c>
@@ -8296,7 +8293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>225</v>
       </c>
@@ -8319,7 +8316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>226</v>
       </c>
@@ -8342,7 +8339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>227</v>
       </c>
@@ -8365,7 +8362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>228</v>
       </c>
@@ -8388,7 +8385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>229</v>
       </c>
@@ -8411,7 +8408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>230</v>
       </c>
@@ -8434,7 +8431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>231</v>
       </c>
@@ -8457,7 +8454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>232</v>
       </c>
@@ -8480,7 +8477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>233</v>
       </c>
@@ -8503,7 +8500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>234</v>
       </c>
@@ -8529,7 +8526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>235</v>
       </c>
@@ -8555,7 +8552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>236</v>
       </c>
@@ -8581,7 +8578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>237</v>
       </c>
@@ -8607,7 +8604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>238</v>
       </c>
@@ -8633,7 +8630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>239</v>
       </c>
@@ -8659,7 +8656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>240</v>
       </c>
@@ -8685,7 +8682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>241</v>
       </c>
@@ -8711,7 +8708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>242</v>
       </c>
@@ -8737,7 +8734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>243</v>
       </c>
@@ -8763,7 +8760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>244</v>
       </c>
@@ -8789,7 +8786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>245</v>
       </c>
@@ -8815,7 +8812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>246</v>
       </c>
@@ -8841,7 +8838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>247</v>
       </c>
@@ -8867,7 +8864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>248</v>
       </c>
@@ -8893,7 +8890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>249</v>
       </c>
@@ -8919,7 +8916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>250</v>
       </c>
@@ -8945,7 +8942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>251</v>
       </c>
@@ -8971,7 +8968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>252</v>
       </c>
@@ -8997,7 +8994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>253</v>
       </c>
@@ -9023,7 +9020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>254</v>
       </c>
@@ -9049,7 +9046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>255</v>
       </c>
@@ -9075,7 +9072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>256</v>
       </c>
@@ -9101,7 +9098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>257</v>
       </c>
@@ -9127,7 +9124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>258</v>
       </c>
@@ -9153,7 +9150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>259</v>
       </c>
@@ -9179,7 +9176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>260</v>
       </c>
@@ -9205,7 +9202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>261</v>
       </c>
@@ -9231,7 +9228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>262</v>
       </c>
@@ -9257,7 +9254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>263</v>
       </c>
@@ -9283,7 +9280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>264</v>
       </c>
@@ -9309,7 +9306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>265</v>
       </c>
@@ -9335,7 +9332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>266</v>
       </c>
@@ -9361,7 +9358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>267</v>
       </c>
@@ -9387,7 +9384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>268</v>
       </c>
@@ -9413,7 +9410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>269</v>
       </c>
@@ -9439,7 +9436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>270</v>
       </c>
@@ -9465,7 +9462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>271</v>
       </c>
@@ -9491,7 +9488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>272</v>
       </c>
@@ -9517,7 +9514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>273</v>
       </c>
@@ -9543,7 +9540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>274</v>
       </c>
@@ -9569,7 +9566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>275</v>
       </c>
@@ -9595,7 +9592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>276</v>
       </c>
@@ -9621,7 +9618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>277</v>
       </c>
@@ -9647,7 +9644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>278</v>
       </c>
@@ -9673,7 +9670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>279</v>
       </c>
@@ -9699,7 +9696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>280</v>
       </c>
@@ -9725,7 +9722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>281</v>
       </c>
@@ -9751,7 +9748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>282</v>
       </c>
@@ -9777,7 +9774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>283</v>
       </c>
@@ -9803,7 +9800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>284</v>
       </c>
@@ -9829,7 +9826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>285</v>
       </c>
@@ -9855,7 +9852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>286</v>
       </c>
@@ -9881,7 +9878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>287</v>
       </c>
@@ -9907,7 +9904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>288</v>
       </c>
@@ -9933,7 +9930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>289</v>
       </c>
@@ -9959,7 +9956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>290</v>
       </c>
@@ -9985,7 +9982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>291</v>
       </c>
@@ -10011,7 +10008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>292</v>
       </c>
@@ -10037,7 +10034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>293</v>
       </c>
@@ -10063,7 +10060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>294</v>
       </c>
@@ -10086,7 +10083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>295</v>
       </c>
@@ -10109,7 +10106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>296</v>
       </c>
@@ -10132,7 +10129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>297</v>
       </c>
@@ -10155,7 +10152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>298</v>
       </c>
@@ -10178,7 +10175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>299</v>
       </c>
@@ -10201,7 +10198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>300</v>
       </c>
@@ -10224,7 +10221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>301</v>
       </c>
@@ -10247,7 +10244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>302</v>
       </c>
@@ -10270,7 +10267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>303</v>
       </c>
@@ -10293,7 +10290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>304</v>
       </c>
@@ -10301,68 +10298,62 @@
         <v>241</v>
       </c>
       <c r="C292">
-        <v>424292</v>
+        <v>418116</v>
       </c>
       <c r="D292">
-        <v>1715427</v>
+        <v>1682502</v>
       </c>
       <c r="E292">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F292" t="s">
         <v>43</v>
       </c>
       <c r="G292">
-        <v>7.04</v>
+        <v>3601.12</v>
       </c>
       <c r="H292" t="s">
         <v>44</v>
       </c>
-      <c r="I292" t="s">
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>306</v>
       </c>
       <c r="B293">
         <v>235</v>
       </c>
       <c r="C293">
-        <v>451215</v>
+        <v>441791</v>
       </c>
       <c r="D293">
-        <v>1729198</v>
+        <v>1678626</v>
       </c>
       <c r="E293">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F293" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G293">
-        <v>9.4</v>
+        <v>948.41</v>
       </c>
       <c r="H293" t="s">
-        <v>44</v>
-      </c>
-      <c r="I293" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B294">
         <v>227</v>
       </c>
       <c r="C294">
-        <v>314145</v>
+        <v>307985</v>
       </c>
       <c r="D294">
-        <v>1362265</v>
+        <v>1317175</v>
       </c>
       <c r="E294">
         <v>63</v>
@@ -10371,73 +10362,67 @@
         <v>43</v>
       </c>
       <c r="G294">
-        <v>243.21</v>
+        <v>3601.23</v>
       </c>
       <c r="H294" t="s">
         <v>44</v>
       </c>
-      <c r="I294" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B295">
         <v>239</v>
       </c>
       <c r="C295">
-        <v>395168</v>
+        <v>390954</v>
       </c>
       <c r="D295">
-        <v>1635068</v>
+        <v>1606632</v>
       </c>
       <c r="E295">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F295" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G295">
-        <v>129.51</v>
+        <v>1835.08</v>
       </c>
       <c r="H295" t="s">
-        <v>44</v>
-      </c>
-      <c r="I295" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B296">
         <v>236</v>
       </c>
       <c r="C296">
-        <v>398505</v>
+        <v>389987</v>
       </c>
       <c r="D296">
-        <v>1633678</v>
+        <v>1578632</v>
       </c>
       <c r="E296">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F296" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G296">
-        <v>632.01</v>
+        <v>791.79</v>
       </c>
       <c r="H296" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B297">
         <v>225</v>
@@ -10461,9 +10446,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B298">
         <v>232</v>
@@ -10487,70 +10472,70 @@
         <v>44</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B299">
         <v>226</v>
       </c>
       <c r="C299">
-        <v>362509</v>
+        <v>354681</v>
       </c>
       <c r="D299">
-        <v>1479725</v>
+        <v>1428761</v>
       </c>
       <c r="E299">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F299" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G299">
-        <v>644.66999999999996</v>
+        <v>1341.16</v>
       </c>
       <c r="H299" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B300">
         <v>239</v>
       </c>
       <c r="C300">
-        <v>396047</v>
+        <v>390463</v>
       </c>
       <c r="D300">
-        <v>1657432</v>
+        <v>1627058</v>
       </c>
       <c r="E300">
         <v>44</v>
       </c>
       <c r="F300" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G300">
-        <v>673.37</v>
+        <v>679.01</v>
       </c>
       <c r="H300" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B301">
         <v>250</v>
       </c>
       <c r="C301">
-        <v>445386</v>
+        <v>432836</v>
       </c>
       <c r="D301">
-        <v>1824743</v>
+        <v>1755911</v>
       </c>
       <c r="E301">
         <v>83</v>
@@ -10559,18 +10544,15 @@
         <v>43</v>
       </c>
       <c r="G301">
-        <v>11.9</v>
+        <v>3601.22</v>
       </c>
       <c r="H301" t="s">
         <v>44</v>
       </c>
-      <c r="I301" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B302">
         <v>240</v>
@@ -10594,9 +10576,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B303">
         <v>239</v>
@@ -10620,9 +10602,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B304">
         <v>251</v>
@@ -10646,9 +10628,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B305">
         <v>254</v>
@@ -10672,9 +10654,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B306">
         <v>229</v>
@@ -10698,9 +10680,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B307">
         <v>237</v>
@@ -10724,9 +10706,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B308">
         <v>238</v>
@@ -10750,9 +10732,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B309">
         <v>240</v>
@@ -10776,9 +10758,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B310">
         <v>236</v>
@@ -10802,9 +10784,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B311">
         <v>246</v>
@@ -10828,9 +10810,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B312">
         <v>253</v>
@@ -10854,9 +10836,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B313">
         <v>236</v>
@@ -10880,9 +10862,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B314">
         <v>251</v>
@@ -10906,9 +10888,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B315">
         <v>227</v>
@@ -10932,9 +10914,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B316">
         <v>247</v>
@@ -10958,9 +10940,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B317">
         <v>231</v>
@@ -10984,9 +10966,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B318">
         <v>221</v>
@@ -11010,9 +10992,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B319">
         <v>241</v>
@@ -11036,9 +11018,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B320">
         <v>230</v>
@@ -11062,9 +11044,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B321">
         <v>240</v>
@@ -11088,9 +11070,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B322">
         <v>224</v>
@@ -11111,9 +11093,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B323">
         <v>227</v>
@@ -11134,9 +11116,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B324">
         <v>246</v>
@@ -11157,9 +11139,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B325">
         <v>220</v>
@@ -11180,9 +11162,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B326">
         <v>242</v>
@@ -11203,9 +11185,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B327">
         <v>236</v>
@@ -11226,9 +11208,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B328">
         <v>243</v>
@@ -11249,9 +11231,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B329">
         <v>234</v>
@@ -11272,9 +11254,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B330">
         <v>253</v>
@@ -11295,9 +11277,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B331">
         <v>243</v>
@@ -11318,9 +11300,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B332">
         <v>233</v>
@@ -11344,9 +11326,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B333">
         <v>242</v>
@@ -11370,9 +11352,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B334">
         <v>233</v>
@@ -11396,9 +11378,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B335">
         <v>252</v>
@@ -11422,9 +11404,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B336">
         <v>232</v>
@@ -11448,9 +11430,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B337">
         <v>220</v>
@@ -11474,9 +11456,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B338">
         <v>248</v>
@@ -11500,9 +11482,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B339">
         <v>247</v>
@@ -11526,9 +11508,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B340">
         <v>235</v>
@@ -11552,9 +11534,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B341">
         <v>238</v>
@@ -11578,9 +11560,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B342">
         <v>217</v>
@@ -11604,9 +11586,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B343">
         <v>246</v>
@@ -11630,9 +11612,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B344">
         <v>233</v>
@@ -11656,9 +11638,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B345">
         <v>241</v>
@@ -11682,9 +11664,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B346">
         <v>224</v>
@@ -11708,9 +11690,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B347">
         <v>231</v>
@@ -11734,9 +11716,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B348">
         <v>235</v>
@@ -11760,9 +11742,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B349">
         <v>261</v>
@@ -11786,9 +11768,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B350">
         <v>239</v>
@@ -11812,9 +11794,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B351">
         <v>233</v>
@@ -11838,9 +11820,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B352">
         <v>236</v>
@@ -11864,9 +11846,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B353">
         <v>227</v>
@@ -11890,9 +11872,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B354">
         <v>240</v>
@@ -11916,9 +11898,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B355">
         <v>221</v>
@@ -11942,9 +11924,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B356">
         <v>229</v>
@@ -11968,9 +11950,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B357">
         <v>250</v>
@@ -11994,9 +11976,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B358">
         <v>231</v>
@@ -12020,9 +12002,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B359">
         <v>245</v>
@@ -12046,9 +12028,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B360">
         <v>247</v>
@@ -12072,9 +12054,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B361">
         <v>231</v>
@@ -12098,9 +12080,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B362">
         <v>236</v>
@@ -12124,9 +12106,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B363">
         <v>234</v>
@@ -12150,9 +12132,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B364">
         <v>259</v>
@@ -12176,9 +12158,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B365">
         <v>231</v>
@@ -12202,9 +12184,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B366">
         <v>242</v>
@@ -12228,9 +12210,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B367">
         <v>250</v>
@@ -12254,9 +12236,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B368">
         <v>225</v>
@@ -12280,9 +12262,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B369">
         <v>236</v>
@@ -12306,9 +12288,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B370">
         <v>241</v>
@@ -12332,9 +12314,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B371">
         <v>241</v>
@@ -12358,9 +12340,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B372">
         <v>239</v>
@@ -12384,9 +12366,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B373">
         <v>238</v>
@@ -12410,9 +12392,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B374">
         <v>232</v>
@@ -12436,9 +12418,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B375">
         <v>248</v>
@@ -12462,9 +12444,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B376">
         <v>235</v>
@@ -12488,9 +12470,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B377">
         <v>236</v>
@@ -12514,9 +12496,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B378">
         <v>232</v>
@@ -12540,9 +12522,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B379">
         <v>247</v>
@@ -12566,9 +12548,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B380">
         <v>259</v>
@@ -12592,9 +12574,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B381">
         <v>247</v>
@@ -12618,44 +12600,44 @@
         <v>11</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B382">
         <v>238</v>
       </c>
       <c r="C382">
-        <v>433401</v>
+        <v>421767</v>
       </c>
       <c r="D382">
-        <v>1759125</v>
+        <v>1698947</v>
       </c>
       <c r="E382">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F382" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G382">
-        <v>608.86</v>
+        <v>978</v>
       </c>
       <c r="H382" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B383">
         <v>240</v>
       </c>
       <c r="C383">
-        <v>434709</v>
+        <v>426360</v>
       </c>
       <c r="D383">
-        <v>1776601</v>
+        <v>1722479</v>
       </c>
       <c r="E383">
         <v>49</v>
@@ -12664,53 +12646,50 @@
         <v>43</v>
       </c>
       <c r="G383">
-        <v>18.02</v>
+        <v>3601.22</v>
       </c>
       <c r="H383" t="s">
         <v>44</v>
       </c>
-      <c r="I383" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B384">
         <v>228</v>
       </c>
       <c r="C384">
-        <v>313749</v>
+        <v>303330</v>
       </c>
       <c r="D384">
-        <v>1371020</v>
+        <v>1301334</v>
       </c>
       <c r="E384">
         <v>48</v>
       </c>
       <c r="F384" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G384">
-        <v>628.97</v>
+        <v>725.76</v>
       </c>
       <c r="H384" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B385">
         <v>234</v>
       </c>
       <c r="C385">
-        <v>356109</v>
+        <v>350181</v>
       </c>
       <c r="D385">
-        <v>1527229</v>
+        <v>1484536</v>
       </c>
       <c r="E385">
         <v>44</v>
@@ -12719,27 +12698,24 @@
         <v>43</v>
       </c>
       <c r="G385">
-        <v>169.54</v>
+        <v>3601.22</v>
       </c>
       <c r="H385" t="s">
         <v>44</v>
       </c>
-      <c r="I385" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B386">
         <v>231</v>
       </c>
       <c r="C386">
-        <v>380662</v>
+        <v>371134</v>
       </c>
       <c r="D386">
-        <v>1553081</v>
+        <v>1487369</v>
       </c>
       <c r="E386">
         <v>57</v>
@@ -12748,18 +12724,15 @@
         <v>43</v>
       </c>
       <c r="G386">
-        <v>23.59</v>
+        <v>3601.22</v>
       </c>
       <c r="H386" t="s">
         <v>44</v>
       </c>
-      <c r="I386" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B387">
         <v>222</v>
@@ -12783,18 +12756,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B388">
         <v>246</v>
       </c>
       <c r="C388">
-        <v>414875</v>
+        <v>406448</v>
       </c>
       <c r="D388">
-        <v>1715340</v>
+        <v>1666223</v>
       </c>
       <c r="E388">
         <v>54</v>
@@ -12803,18 +12776,15 @@
         <v>43</v>
       </c>
       <c r="G388">
-        <v>11.88</v>
+        <v>3601.28</v>
       </c>
       <c r="H388" t="s">
         <v>44</v>
       </c>
-      <c r="I388" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B389">
         <v>240</v>
@@ -12838,18 +12808,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B390">
         <v>245</v>
       </c>
       <c r="C390">
-        <v>413578</v>
+        <v>404028</v>
       </c>
       <c r="D390">
-        <v>1734364</v>
+        <v>1669323</v>
       </c>
       <c r="E390">
         <v>51</v>
@@ -12858,47 +12828,41 @@
         <v>43</v>
       </c>
       <c r="G390">
-        <v>69.650000000000006</v>
+        <v>3601.28</v>
       </c>
       <c r="H390" t="s">
         <v>44</v>
       </c>
-      <c r="I390" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B391">
         <v>235</v>
       </c>
       <c r="C391">
-        <v>440886</v>
+        <v>430982</v>
       </c>
       <c r="D391">
-        <v>1729651</v>
+        <v>1672017</v>
       </c>
       <c r="E391">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F391" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G391">
-        <v>215.53</v>
+        <v>1277.27</v>
       </c>
       <c r="H391" t="s">
-        <v>44</v>
-      </c>
-      <c r="I391" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B392">
         <v>229</v>
@@ -12922,9 +12886,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B393">
         <v>240</v>
@@ -12948,9 +12912,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B394">
         <v>238</v>
@@ -12974,9 +12938,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B395">
         <v>231</v>
@@ -13000,9 +12964,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B396">
         <v>257</v>
@@ -13026,9 +12990,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B397">
         <v>261</v>
@@ -13052,9 +13016,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B398">
         <v>248</v>
@@ -13078,9 +13042,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B399">
         <v>246</v>
@@ -13104,9 +13068,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B400">
         <v>223</v>
@@ -13130,9 +13094,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B401">
         <v>252</v>
@@ -13156,9 +13120,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B402">
         <v>249</v>
@@ -13182,9 +13146,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B403">
         <v>248</v>
@@ -13208,9 +13172,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B404">
         <v>227</v>
@@ -13234,9 +13198,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B405">
         <v>240</v>
@@ -13260,9 +13224,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B406">
         <v>252</v>
@@ -13286,9 +13250,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B407">
         <v>239</v>
@@ -13312,9 +13276,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B408">
         <v>242</v>
@@ -13338,9 +13302,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B409">
         <v>241</v>
@@ -13364,9 +13328,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B410">
         <v>250</v>
@@ -13390,9 +13354,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B411">
         <v>225</v>
@@ -13416,9 +13380,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B412">
         <v>227</v>
@@ -13442,9 +13406,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B413">
         <v>236</v>
@@ -13468,9 +13432,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B414">
         <v>218</v>
@@ -13494,9 +13458,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B415">
         <v>251</v>
@@ -13520,9 +13484,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B416">
         <v>241</v>
@@ -13546,9 +13510,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B417">
         <v>230</v>
@@ -13572,9 +13536,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B418">
         <v>242</v>
@@ -13598,9 +13562,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B419">
         <v>237</v>
@@ -13624,9 +13588,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B420">
         <v>241</v>
@@ -13650,9 +13614,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B421">
         <v>248</v>
@@ -13676,9 +13640,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B422">
         <v>228</v>
@@ -13702,9 +13666,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B423">
         <v>247</v>
@@ -13728,9 +13692,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B424">
         <v>248</v>
@@ -13754,9 +13718,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B425">
         <v>246</v>
@@ -13780,9 +13744,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B426">
         <v>226</v>
@@ -13806,9 +13770,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B427">
         <v>240</v>
@@ -13832,9 +13796,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B428">
         <v>249</v>
@@ -13858,9 +13822,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B429">
         <v>240</v>
@@ -13884,9 +13848,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B430">
         <v>235</v>
@@ -13910,9 +13874,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B431">
         <v>236</v>
@@ -13936,9 +13900,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B432">
         <v>226</v>
@@ -13959,9 +13923,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B433">
         <v>239</v>
@@ -13982,9 +13946,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B434">
         <v>252</v>
@@ -14005,9 +13969,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B435">
         <v>247</v>
@@ -14028,9 +13992,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B436">
         <v>227</v>
@@ -14051,9 +14015,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B437">
         <v>261</v>
@@ -14074,9 +14038,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B438">
         <v>248</v>
@@ -14097,9 +14061,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B439">
         <v>246</v>
@@ -14120,9 +14084,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B440">
         <v>247</v>
@@ -14143,9 +14107,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B441">
         <v>237</v>
@@ -14166,9 +14130,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B442">
         <v>228</v>
@@ -14192,9 +14156,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B443">
         <v>248</v>
@@ -14218,9 +14182,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B444">
         <v>247</v>
@@ -14244,9 +14208,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B445">
         <v>241</v>
@@ -14270,9 +14234,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B446">
         <v>255</v>
@@ -14296,9 +14260,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B447">
         <v>247</v>
@@ -14322,9 +14286,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B448">
         <v>234</v>
@@ -14348,9 +14312,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B449">
         <v>237</v>
@@ -14374,9 +14338,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B450">
         <v>258</v>
@@ -14400,9 +14364,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B451">
         <v>246</v>
@@ -14426,9 +14390,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B452">
         <v>247</v>
@@ -14452,9 +14416,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B453">
         <v>238</v>
@@ -14478,9 +14442,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B454">
         <v>242</v>
@@ -14504,9 +14468,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B455">
         <v>250</v>
@@ -14530,9 +14494,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B456">
         <v>250</v>
@@ -14556,9 +14520,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B457">
         <v>243</v>
@@ -14582,9 +14546,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B458">
         <v>246</v>
@@ -14608,9 +14572,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B459">
         <v>231</v>
@@ -14634,9 +14598,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B460">
         <v>244</v>
@@ -14660,9 +14624,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B461">
         <v>234</v>
@@ -14686,9 +14650,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B462">
         <v>242</v>
@@ -14712,9 +14676,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B463">
         <v>235</v>
@@ -14738,9 +14702,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B464">
         <v>239</v>
@@ -14764,9 +14728,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B465">
         <v>227</v>
@@ -14790,9 +14754,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B466">
         <v>242</v>
@@ -14816,9 +14780,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B467">
         <v>262</v>
@@ -14842,9 +14806,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B468">
         <v>244</v>
@@ -14868,9 +14832,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B469">
         <v>238</v>
@@ -14894,9 +14858,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B470">
         <v>219</v>
@@ -14920,9 +14884,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B471">
         <v>242</v>
@@ -14946,9 +14910,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B472">
         <v>241</v>
@@ -14972,9 +14936,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B473">
         <v>225</v>
@@ -14998,9 +14962,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B474">
         <v>233</v>
@@ -15024,9 +14988,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B475">
         <v>236</v>
@@ -15050,9 +15014,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B476">
         <v>238</v>
@@ -15076,38 +15040,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B477">
         <v>245</v>
       </c>
       <c r="C477">
-        <v>428354</v>
+        <v>416886</v>
       </c>
       <c r="D477">
-        <v>1721487</v>
+        <v>1656682</v>
       </c>
       <c r="E477">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F477" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G477">
-        <v>59.97</v>
+        <v>804.62</v>
       </c>
       <c r="H477" t="s">
-        <v>44</v>
-      </c>
-      <c r="I477" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B478">
         <v>242</v>
@@ -15131,64 +15092,61 @@
         <v>11</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B479">
         <v>247</v>
       </c>
       <c r="C479">
-        <v>409750</v>
+        <v>399852</v>
       </c>
       <c r="D479">
-        <v>1727781</v>
+        <v>1671244</v>
       </c>
       <c r="E479">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F479" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G479">
-        <v>622.6</v>
+        <v>1215.1500000000001</v>
       </c>
       <c r="H479" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B480">
         <v>234</v>
       </c>
       <c r="C480">
-        <v>422082</v>
+        <v>413536</v>
       </c>
       <c r="D480">
-        <v>1671466</v>
+        <v>1618679</v>
       </c>
       <c r="E480">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F480" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G480">
-        <v>452.68</v>
+        <v>657.66</v>
       </c>
       <c r="H480" t="s">
-        <v>44</v>
-      </c>
-      <c r="I480" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B481">
         <v>246</v>
@@ -15212,9 +15170,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B482">
         <v>232</v>
@@ -15238,9 +15196,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B483">
         <v>245</v>
@@ -15264,9 +15222,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B484">
         <v>239</v>
@@ -15290,9 +15248,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B485">
         <v>243</v>
@@ -15316,9 +15274,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B486">
         <v>242</v>
@@ -15342,9 +15300,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B487">
         <v>237</v>
@@ -15368,9 +15326,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B488">
         <v>244</v>
@@ -15394,9 +15352,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B489">
         <v>243</v>
@@ -15420,9 +15378,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B490">
         <v>263</v>
@@ -15446,9 +15404,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B491">
         <v>231</v>
@@ -15472,9 +15430,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B492">
         <v>245</v>
@@ -15498,9 +15456,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B493">
         <v>238</v>
@@ -15524,9 +15482,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B494">
         <v>247</v>
@@ -15550,9 +15508,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B495">
         <v>230</v>
@@ -15576,9 +15534,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B496">
         <v>225</v>
@@ -15602,9 +15560,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B497">
         <v>226</v>
@@ -15628,9 +15586,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B498">
         <v>233</v>
@@ -15654,9 +15612,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B499">
         <v>237</v>
@@ -15680,9 +15638,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B500">
         <v>245</v>
@@ -15706,9 +15664,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B501">
         <v>246</v>
@@ -15732,9 +15690,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B502">
         <v>238</v>
@@ -15758,9 +15716,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B503">
         <v>230</v>
@@ -15784,9 +15742,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B504">
         <v>241</v>
@@ -15810,9 +15768,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B505">
         <v>239</v>
@@ -15836,9 +15794,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B506">
         <v>229</v>
@@ -15862,9 +15820,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B507">
         <v>249</v>
@@ -15888,9 +15846,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B508">
         <v>235</v>
@@ -15914,9 +15872,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B509">
         <v>235</v>
@@ -15940,9 +15898,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B510">
         <v>243</v>
@@ -15966,9 +15924,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B511">
         <v>238</v>
@@ -15992,9 +15950,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B512">
         <v>217</v>
@@ -16018,9 +15976,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B513">
         <v>251</v>
@@ -16044,9 +16002,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B514">
         <v>227</v>
@@ -16070,9 +16028,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B515">
         <v>237</v>
@@ -16096,9 +16054,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B516">
         <v>227</v>
@@ -16122,9 +16080,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B517">
         <v>221</v>
@@ -16148,9 +16106,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B518">
         <v>225</v>
@@ -16174,9 +16132,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B519">
         <v>246</v>
@@ -16200,9 +16158,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B520">
         <v>228</v>
@@ -16226,9 +16184,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B521">
         <v>210</v>
@@ -16252,9 +16210,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B522">
         <v>232</v>
@@ -16278,9 +16236,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B523">
         <v>240</v>
@@ -16304,9 +16262,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B524">
         <v>243</v>
@@ -16330,9 +16288,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B525">
         <v>239</v>
@@ -16356,9 +16314,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B526">
         <v>238</v>
@@ -16382,9 +16340,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B527">
         <v>251</v>
@@ -16408,9 +16366,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B528">
         <v>246</v>
@@ -16434,9 +16392,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B529">
         <v>249</v>
@@ -16460,9 +16418,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B530">
         <v>256</v>
@@ -16486,9 +16444,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B531">
         <v>257</v>
@@ -16512,9 +16470,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B532">
         <v>255</v>
@@ -16538,9 +16496,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B533">
         <v>257</v>
@@ -16564,9 +16522,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B534">
         <v>251</v>
@@ -16590,9 +16548,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B535">
         <v>245</v>
@@ -16616,9 +16574,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B536">
         <v>235</v>
@@ -16642,9 +16600,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B537">
         <v>254</v>
@@ -16668,9 +16626,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B538">
         <v>234</v>
@@ -16694,9 +16652,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B539">
         <v>234</v>
@@ -16720,9 +16678,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B540">
         <v>248</v>
@@ -16746,9 +16704,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B541">
         <v>214</v>
@@ -16772,9 +16730,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B542">
         <v>247</v>
@@ -16795,9 +16753,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B543">
         <v>237</v>
@@ -16818,9 +16776,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B544">
         <v>234</v>
@@ -16841,9 +16799,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B545">
         <v>244</v>
@@ -16864,9 +16822,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B546">
         <v>241</v>
@@ -16887,9 +16845,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B547">
         <v>250</v>
@@ -16910,9 +16868,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B548">
         <v>254</v>
@@ -16933,9 +16891,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B549">
         <v>253</v>
@@ -16956,9 +16914,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B550">
         <v>249</v>
@@ -16979,9 +16937,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B551">
         <v>249</v>
@@ -17002,9 +16960,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B552">
         <v>246</v>
@@ -17028,9 +16986,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B553">
         <v>230</v>
@@ -17054,9 +17012,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B554">
         <v>250</v>
@@ -17080,9 +17038,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B555">
         <v>254</v>
@@ -17106,9 +17064,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B556">
         <v>247</v>
@@ -17132,9 +17090,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B557">
         <v>243</v>
@@ -17158,9 +17116,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B558">
         <v>237</v>
@@ -17184,9 +17142,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B559">
         <v>239</v>
@@ -17210,9 +17168,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B560">
         <v>238</v>
@@ -17236,9 +17194,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B561">
         <v>232</v>
@@ -17262,9 +17220,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B562">
         <v>236</v>
@@ -17288,9 +17246,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B563">
         <v>249</v>
@@ -17314,9 +17272,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B564">
         <v>240</v>
@@ -17340,9 +17298,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B565">
         <v>239</v>
@@ -17366,9 +17324,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B566">
         <v>241</v>
@@ -17392,9 +17350,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B567">
         <v>238</v>
@@ -17418,9 +17376,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B568">
         <v>234</v>
@@ -17444,9 +17402,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B569">
         <v>249</v>
@@ -17470,9 +17428,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B570">
         <v>230</v>
@@ -17496,9 +17454,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B571">
         <v>244</v>
@@ -17522,9 +17480,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B572">
         <v>253</v>
@@ -17548,9 +17506,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B573">
         <v>230</v>
@@ -17574,9 +17532,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B574">
         <v>232</v>
@@ -17600,9 +17558,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B575">
         <v>239</v>
@@ -17626,9 +17584,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B576">
         <v>261</v>
@@ -17652,9 +17610,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B577">
         <v>265</v>
@@ -17678,9 +17636,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B578">
         <v>246</v>
@@ -17704,9 +17662,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B579">
         <v>244</v>
@@ -17730,9 +17688,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B580">
         <v>248</v>
@@ -17756,9 +17714,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B581">
         <v>221</v>
@@ -17782,9 +17740,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B582">
         <v>231</v>
@@ -17808,9 +17766,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B583">
         <v>243</v>
@@ -17834,9 +17792,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B584">
         <v>237</v>
@@ -17860,9 +17818,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B585">
         <v>236</v>
@@ -17886,9 +17844,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B586">
         <v>248</v>
@@ -17912,9 +17870,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B587">
         <v>256</v>
@@ -17938,9 +17896,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B588">
         <v>252</v>
@@ -17964,9 +17922,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B589">
         <v>236</v>
@@ -17990,9 +17948,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B590">
         <v>242</v>
@@ -18016,9 +17974,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B591">
         <v>233</v>
@@ -18042,9 +18000,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B592">
         <v>260</v>
@@ -18068,9 +18026,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B593">
         <v>239</v>
@@ -18094,9 +18052,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B594">
         <v>238</v>
@@ -18120,9 +18078,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B595">
         <v>230</v>
@@ -18146,9 +18104,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B596">
         <v>242</v>
@@ -18172,9 +18130,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B597">
         <v>241</v>
@@ -18198,9 +18156,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B598">
         <v>246</v>
@@ -18224,9 +18182,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B599">
         <v>234</v>
@@ -18250,9 +18208,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B600">
         <v>248</v>
@@ -18276,9 +18234,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B601">
         <v>241</v>
@@ -18302,9 +18260,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B602">
         <v>239</v>
@@ -18325,9 +18283,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B603">
         <v>224</v>
@@ -18348,9 +18306,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B604">
         <v>237</v>
@@ -18371,9 +18329,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B605">
         <v>249</v>
@@ -18394,9 +18352,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B606">
         <v>229</v>
@@ -18417,9 +18375,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B607">
         <v>247</v>
@@ -18440,9 +18398,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B608">
         <v>223</v>
@@ -18463,9 +18421,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B609">
         <v>242</v>
@@ -18486,9 +18444,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B610">
         <v>252</v>
@@ -18509,9 +18467,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B611">
         <v>246</v>
@@ -18532,9 +18490,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B612">
         <v>227</v>
@@ -18555,9 +18513,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B613">
         <v>238</v>
@@ -18578,9 +18536,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B614">
         <v>221</v>
@@ -18601,9 +18559,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B615">
         <v>239</v>
@@ -18624,9 +18582,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B616">
         <v>248</v>
@@ -18647,9 +18605,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B617">
         <v>249</v>
@@ -18670,9 +18628,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B618">
         <v>220</v>
@@ -18693,9 +18651,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B619">
         <v>241</v>
@@ -18716,9 +18674,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B620">
         <v>241</v>
@@ -18742,9 +18700,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B621">
         <v>239</v>
@@ -18765,9 +18723,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B622">
         <v>226</v>
@@ -18788,9 +18746,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B623">
         <v>242</v>
@@ -18811,9 +18769,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B624">
         <v>229</v>
@@ -18834,9 +18792,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B625">
         <v>239</v>
@@ -18857,9 +18815,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B626">
         <v>224</v>
@@ -18880,9 +18838,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B627">
         <v>259</v>
@@ -18903,9 +18861,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B628">
         <v>238</v>
@@ -18929,9 +18887,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B629">
         <v>239</v>
@@ -18952,9 +18910,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B630">
         <v>238</v>
@@ -18975,9 +18933,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B631">
         <v>235</v>
@@ -18998,9 +18956,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B632">
         <v>225</v>
@@ -19024,9 +18982,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B633">
         <v>226</v>
@@ -19050,9 +19008,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B634">
         <v>254</v>
@@ -19076,9 +19034,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B635">
         <v>238</v>
@@ -19102,9 +19060,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B636">
         <v>224</v>
@@ -19128,9 +19086,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B637">
         <v>253</v>
@@ -19154,9 +19112,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B638">
         <v>237</v>
@@ -19180,9 +19138,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B639">
         <v>229</v>
@@ -19206,9 +19164,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B640">
         <v>216</v>
@@ -19232,9 +19190,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B641">
         <v>237</v>
@@ -19259,13 +19217,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I641">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Feasible"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I641" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result/verified/j30_Bimerge_BDD.xlsx
+++ b/result/verified/j30_Bimerge_BDD.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15" conformance="strict">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\MRCPSPTest\result\verified\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\MRCPSPTest\result\verified\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{607C8F06-7F6A-482E-944C-EA2BB7001762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11430" yWindow="0" windowWidth="11715" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="MRCPSP_j30_results_20250909_005" sheetId="1" r:id="rId1"/>
@@ -1995,7 +1994,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2802,16 +2801,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" workbookViewId="0">
-      <selection activeCell="E293" sqref="E293"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2840,7 +2839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2866,7 +2865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2892,7 +2891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2918,7 +2917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2944,7 +2943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2970,7 +2969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2996,7 +2995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3022,7 +3021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -3048,7 +3047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3074,7 +3073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3100,7 +3099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3126,7 +3125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3178,7 +3177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -3204,7 +3203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -3230,7 +3229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3256,7 +3255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3282,7 +3281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -3308,7 +3307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3334,7 +3333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -3360,7 +3359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3386,7 +3385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -3412,7 +3411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -3438,7 +3437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -3464,7 +3463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -3490,7 +3489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -3516,7 +3515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -3542,7 +3541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -3568,7 +3567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -3594,7 +3593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -3620,7 +3619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -3646,7 +3645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3672,7 +3671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -3698,7 +3697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -3724,7 +3723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -3750,7 +3749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -3776,7 +3775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -3802,7 +3801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -3828,7 +3827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -3854,7 +3853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -3880,7 +3879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -3906,7 +3905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -3932,7 +3931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -3958,7 +3957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -3984,7 +3983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -4010,7 +4009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -4036,7 +4035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -4062,7 +4061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -4088,7 +4087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -4114,7 +4113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -4140,7 +4139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -4166,7 +4165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -4192,7 +4191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -4218,7 +4217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -4244,7 +4243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -4270,7 +4269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -4296,7 +4295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -4322,7 +4321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -4348,7 +4347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -4374,7 +4373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -4400,7 +4399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -4426,7 +4425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -4452,7 +4451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -4478,7 +4477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -4504,7 +4503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -4530,7 +4529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -4556,7 +4555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -4582,7 +4581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -4608,7 +4607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -4634,7 +4633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -4660,7 +4659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -4686,7 +4685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -4712,7 +4711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -4738,7 +4737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -4764,7 +4763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -4790,7 +4789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -4816,7 +4815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>89</v>
       </c>
@@ -4842,7 +4841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -4868,7 +4867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -4894,7 +4893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>92</v>
       </c>
@@ -4920,7 +4919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -4946,7 +4945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>94</v>
       </c>
@@ -4972,7 +4971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -4998,7 +4997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>96</v>
       </c>
@@ -5024,7 +5023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>97</v>
       </c>
@@ -5050,7 +5049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>99</v>
       </c>
@@ -5102,7 +5101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>100</v>
       </c>
@@ -5128,7 +5127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>101</v>
       </c>
@@ -5154,7 +5153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>102</v>
       </c>
@@ -5180,7 +5179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -5206,7 +5205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -5232,7 +5231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>105</v>
       </c>
@@ -5258,7 +5257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -5284,7 +5283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>107</v>
       </c>
@@ -5310,7 +5309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -5336,7 +5335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>109</v>
       </c>
@@ -5362,7 +5361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>110</v>
       </c>
@@ -5388,7 +5387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -5414,7 +5413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -5440,7 +5439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -5463,7 +5462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>115</v>
       </c>
@@ -5486,7 +5485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -5509,7 +5508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -5532,7 +5531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>118</v>
       </c>
@@ -5555,7 +5554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>119</v>
       </c>
@@ -5578,7 +5577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>120</v>
       </c>
@@ -5601,7 +5600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>121</v>
       </c>
@@ -5624,7 +5623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>122</v>
       </c>
@@ -5647,7 +5646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -5670,7 +5669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>124</v>
       </c>
@@ -5696,7 +5695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -5722,7 +5721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>126</v>
       </c>
@@ -5748,7 +5747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -5774,7 +5773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>128</v>
       </c>
@@ -5800,7 +5799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>129</v>
       </c>
@@ -5826,7 +5825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>130</v>
       </c>
@@ -5852,7 +5851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>131</v>
       </c>
@@ -5878,7 +5877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>132</v>
       </c>
@@ -5904,7 +5903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>133</v>
       </c>
@@ -5930,7 +5929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>134</v>
       </c>
@@ -5956,7 +5955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>135</v>
       </c>
@@ -5982,7 +5981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>136</v>
       </c>
@@ -6008,7 +6007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>137</v>
       </c>
@@ -6034,7 +6033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>138</v>
       </c>
@@ -6060,7 +6059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>139</v>
       </c>
@@ -6086,7 +6085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>140</v>
       </c>
@@ -6112,7 +6111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>141</v>
       </c>
@@ -6138,7 +6137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>142</v>
       </c>
@@ -6164,7 +6163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>143</v>
       </c>
@@ -6190,7 +6189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>144</v>
       </c>
@@ -6216,7 +6215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>145</v>
       </c>
@@ -6242,7 +6241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>146</v>
       </c>
@@ -6268,7 +6267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>147</v>
       </c>
@@ -6294,7 +6293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>148</v>
       </c>
@@ -6320,7 +6319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>149</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>150</v>
       </c>
@@ -6372,7 +6371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>151</v>
       </c>
@@ -6398,7 +6397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>152</v>
       </c>
@@ -6424,7 +6423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>153</v>
       </c>
@@ -6450,7 +6449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>154</v>
       </c>
@@ -6476,7 +6475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>155</v>
       </c>
@@ -6502,7 +6501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>156</v>
       </c>
@@ -6528,7 +6527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>157</v>
       </c>
@@ -6554,7 +6553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>158</v>
       </c>
@@ -6580,7 +6579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>159</v>
       </c>
@@ -6606,7 +6605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>160</v>
       </c>
@@ -6632,7 +6631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>161</v>
       </c>
@@ -6658,7 +6657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>162</v>
       </c>
@@ -6684,7 +6683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>163</v>
       </c>
@@ -6710,7 +6709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>164</v>
       </c>
@@ -6736,7 +6735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>165</v>
       </c>
@@ -6762,7 +6761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>166</v>
       </c>
@@ -6788,7 +6787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>167</v>
       </c>
@@ -6814,7 +6813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>168</v>
       </c>
@@ -6840,7 +6839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>169</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>170</v>
       </c>
@@ -6892,7 +6891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>171</v>
       </c>
@@ -6918,7 +6917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>172</v>
       </c>
@@ -6944,7 +6943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>173</v>
       </c>
@@ -6970,7 +6969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>174</v>
       </c>
@@ -6996,7 +6995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>175</v>
       </c>
@@ -7022,7 +7021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>176</v>
       </c>
@@ -7048,7 +7047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>177</v>
       </c>
@@ -7074,7 +7073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>178</v>
       </c>
@@ -7100,7 +7099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>179</v>
       </c>
@@ -7126,7 +7125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>180</v>
       </c>
@@ -7152,7 +7151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>181</v>
       </c>
@@ -7178,7 +7177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>182</v>
       </c>
@@ -7204,7 +7203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>183</v>
       </c>
@@ -7230,7 +7229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>184</v>
       </c>
@@ -7256,7 +7255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>185</v>
       </c>
@@ -7282,7 +7281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>186</v>
       </c>
@@ -7308,7 +7307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>187</v>
       </c>
@@ -7334,7 +7333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>188</v>
       </c>
@@ -7360,7 +7359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>189</v>
       </c>
@@ -7386,7 +7385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>190</v>
       </c>
@@ -7412,7 +7411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>191</v>
       </c>
@@ -7438,7 +7437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>192</v>
       </c>
@@ -7464,7 +7463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>193</v>
       </c>
@@ -7490,7 +7489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>194</v>
       </c>
@@ -7516,7 +7515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>195</v>
       </c>
@@ -7542,7 +7541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>196</v>
       </c>
@@ -7568,7 +7567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>197</v>
       </c>
@@ -7594,7 +7593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>198</v>
       </c>
@@ -7620,7 +7619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>199</v>
       </c>
@@ -7646,7 +7645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>200</v>
       </c>
@@ -7672,7 +7671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>201</v>
       </c>
@@ -7698,7 +7697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>202</v>
       </c>
@@ -7724,7 +7723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>203</v>
       </c>
@@ -7750,7 +7749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>204</v>
       </c>
@@ -7776,7 +7775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>205</v>
       </c>
@@ -7802,7 +7801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>206</v>
       </c>
@@ -7828,7 +7827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>207</v>
       </c>
@@ -7854,7 +7853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>208</v>
       </c>
@@ -7880,7 +7879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>209</v>
       </c>
@@ -7906,7 +7905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>210</v>
       </c>
@@ -7932,7 +7931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>211</v>
       </c>
@@ -7958,7 +7957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>212</v>
       </c>
@@ -7984,7 +7983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>213</v>
       </c>
@@ -8010,7 +8009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>214</v>
       </c>
@@ -8036,7 +8035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>215</v>
       </c>
@@ -8062,7 +8061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>216</v>
       </c>
@@ -8088,7 +8087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>217</v>
       </c>
@@ -8114,7 +8113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>218</v>
       </c>
@@ -8140,7 +8139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>219</v>
       </c>
@@ -8166,7 +8165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>220</v>
       </c>
@@ -8192,7 +8191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>221</v>
       </c>
@@ -8218,7 +8217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>222</v>
       </c>
@@ -8244,7 +8243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>223</v>
       </c>
@@ -8270,7 +8269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>224</v>
       </c>
@@ -8293,7 +8292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>225</v>
       </c>
@@ -8316,7 +8315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>226</v>
       </c>
@@ -8339,7 +8338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>227</v>
       </c>
@@ -8362,7 +8361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>228</v>
       </c>
@@ -8385,7 +8384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>229</v>
       </c>
@@ -8408,7 +8407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>230</v>
       </c>
@@ -8431,7 +8430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>231</v>
       </c>
@@ -8454,7 +8453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>232</v>
       </c>
@@ -8477,7 +8476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>233</v>
       </c>
@@ -8500,7 +8499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>234</v>
       </c>
@@ -8526,7 +8525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>235</v>
       </c>
@@ -8552,7 +8551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>236</v>
       </c>
@@ -8578,7 +8577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>237</v>
       </c>
@@ -8604,7 +8603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>238</v>
       </c>
@@ -8630,7 +8629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>239</v>
       </c>
@@ -8656,7 +8655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>240</v>
       </c>
@@ -8682,7 +8681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>241</v>
       </c>
@@ -8708,7 +8707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>242</v>
       </c>
@@ -8734,7 +8733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>243</v>
       </c>
@@ -8760,7 +8759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>244</v>
       </c>
@@ -8786,7 +8785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>245</v>
       </c>
@@ -8812,7 +8811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>246</v>
       </c>
@@ -8838,7 +8837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>247</v>
       </c>
@@ -8864,7 +8863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>248</v>
       </c>
@@ -8890,7 +8889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>249</v>
       </c>
@@ -8916,7 +8915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>250</v>
       </c>
@@ -8942,7 +8941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>251</v>
       </c>
@@ -8968,7 +8967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>252</v>
       </c>
@@ -8994,7 +8993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>253</v>
       </c>
@@ -9020,7 +9019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>254</v>
       </c>
@@ -9046,7 +9045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>255</v>
       </c>
@@ -9072,7 +9071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>256</v>
       </c>
@@ -9098,7 +9097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>257</v>
       </c>
@@ -9124,7 +9123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>258</v>
       </c>
@@ -9150,7 +9149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>259</v>
       </c>
@@ -9176,7 +9175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>260</v>
       </c>
@@ -9202,7 +9201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>261</v>
       </c>
@@ -9228,7 +9227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>262</v>
       </c>
@@ -9254,7 +9253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>263</v>
       </c>
@@ -9280,7 +9279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>264</v>
       </c>
@@ -9306,7 +9305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>265</v>
       </c>
@@ -9332,7 +9331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>266</v>
       </c>
@@ -9358,7 +9357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>267</v>
       </c>
@@ -9384,7 +9383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>268</v>
       </c>
@@ -9410,7 +9409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>269</v>
       </c>
@@ -9436,7 +9435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>270</v>
       </c>
@@ -9462,7 +9461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>271</v>
       </c>
@@ -9488,7 +9487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>272</v>
       </c>
@@ -9514,7 +9513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>273</v>
       </c>
@@ -9540,7 +9539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>274</v>
       </c>
@@ -9566,7 +9565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>275</v>
       </c>
@@ -9592,7 +9591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>276</v>
       </c>
@@ -9618,7 +9617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>277</v>
       </c>
@@ -9644,7 +9643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>278</v>
       </c>
@@ -9670,7 +9669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>279</v>
       </c>
@@ -9696,7 +9695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>280</v>
       </c>
@@ -9722,7 +9721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>281</v>
       </c>
@@ -9748,7 +9747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>282</v>
       </c>
@@ -9774,7 +9773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>283</v>
       </c>
@@ -9800,7 +9799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>284</v>
       </c>
@@ -9826,7 +9825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>285</v>
       </c>
@@ -9852,7 +9851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>286</v>
       </c>
@@ -9878,7 +9877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>287</v>
       </c>
@@ -9904,7 +9903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>288</v>
       </c>
@@ -9930,7 +9929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>289</v>
       </c>
@@ -9956,7 +9955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>290</v>
       </c>
@@ -9982,7 +9981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>291</v>
       </c>
@@ -10008,7 +10007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>292</v>
       </c>
@@ -10034,7 +10033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>293</v>
       </c>
@@ -10060,7 +10059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>294</v>
       </c>
@@ -10083,7 +10082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>295</v>
       </c>
@@ -10106,7 +10105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>296</v>
       </c>
@@ -10129,7 +10128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>297</v>
       </c>
@@ -10152,7 +10151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>298</v>
       </c>
@@ -10175,7 +10174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>299</v>
       </c>
@@ -10198,7 +10197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>300</v>
       </c>
@@ -10221,7 +10220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>301</v>
       </c>
@@ -10244,7 +10243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>302</v>
       </c>
@@ -10267,7 +10266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>303</v>
       </c>
@@ -10290,7 +10289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>304</v>
       </c>
@@ -10316,7 +10315,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>305</v>
       </c>
@@ -10342,7 +10341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>306</v>
       </c>
@@ -10368,7 +10367,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>307</v>
       </c>
@@ -10394,7 +10393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>308</v>
       </c>
@@ -10420,7 +10419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>309</v>
       </c>
@@ -10446,7 +10445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>310</v>
       </c>
@@ -10472,7 +10471,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>311</v>
       </c>
@@ -10498,7 +10497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>312</v>
       </c>
@@ -10524,7 +10523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>313</v>
       </c>
@@ -10550,7 +10549,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>314</v>
       </c>
@@ -10576,7 +10575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>315</v>
       </c>
@@ -10602,7 +10601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>316</v>
       </c>
@@ -10628,7 +10627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>317</v>
       </c>
@@ -10654,7 +10653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>318</v>
       </c>
@@ -10680,7 +10679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>319</v>
       </c>
@@ -10706,7 +10705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>320</v>
       </c>
@@ -10732,7 +10731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>321</v>
       </c>
@@ -10758,7 +10757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>322</v>
       </c>
@@ -10784,7 +10783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>323</v>
       </c>
@@ -10810,7 +10809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>324</v>
       </c>
@@ -10836,7 +10835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>325</v>
       </c>
@@ -10862,7 +10861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>326</v>
       </c>
@@ -10888,7 +10887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>327</v>
       </c>
@@ -10914,7 +10913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>328</v>
       </c>
@@ -10940,7 +10939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>329</v>
       </c>
@@ -10966,7 +10965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>330</v>
       </c>
@@ -10992,7 +10991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>331</v>
       </c>
@@ -11018,7 +11017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>332</v>
       </c>
@@ -11044,7 +11043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>333</v>
       </c>
@@ -11070,7 +11069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>334</v>
       </c>
@@ -11093,7 +11092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>335</v>
       </c>
@@ -11116,7 +11115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>336</v>
       </c>
@@ -11139,7 +11138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>337</v>
       </c>
@@ -11162,7 +11161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>338</v>
       </c>
@@ -11185,7 +11184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>339</v>
       </c>
@@ -11208,7 +11207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>340</v>
       </c>
@@ -11231,7 +11230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>341</v>
       </c>
@@ -11254,7 +11253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>342</v>
       </c>
@@ -11277,7 +11276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>343</v>
       </c>
@@ -11300,7 +11299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>344</v>
       </c>
@@ -11326,7 +11325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>345</v>
       </c>
@@ -11352,7 +11351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>346</v>
       </c>
@@ -11378,7 +11377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>347</v>
       </c>
@@ -11404,7 +11403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>348</v>
       </c>
@@ -11430,7 +11429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>349</v>
       </c>
@@ -11456,7 +11455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>350</v>
       </c>
@@ -11482,7 +11481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>351</v>
       </c>
@@ -11508,7 +11507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>352</v>
       </c>
@@ -11534,7 +11533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>353</v>
       </c>
@@ -11560,7 +11559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>354</v>
       </c>
@@ -11586,7 +11585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>355</v>
       </c>
@@ -11612,7 +11611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>356</v>
       </c>
@@ -11638,7 +11637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>357</v>
       </c>
@@ -11664,7 +11663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>358</v>
       </c>
@@ -11690,7 +11689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>359</v>
       </c>
@@ -11716,7 +11715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>360</v>
       </c>
@@ -11742,7 +11741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>361</v>
       </c>
@@ -11768,7 +11767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>362</v>
       </c>
@@ -11794,7 +11793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>363</v>
       </c>
@@ -11820,7 +11819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>364</v>
       </c>
@@ -11846,7 +11845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>365</v>
       </c>
@@ -11872,7 +11871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>366</v>
       </c>
@@ -11898,7 +11897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>367</v>
       </c>
@@ -11924,7 +11923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>368</v>
       </c>
@@ -11950,7 +11949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>369</v>
       </c>
@@ -11976,7 +11975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>370</v>
       </c>
@@ -12002,7 +12001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>371</v>
       </c>
@@ -12028,7 +12027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>372</v>
       </c>
@@ -12054,7 +12053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>373</v>
       </c>
@@ -12080,7 +12079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>374</v>
       </c>
@@ -12106,7 +12105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>375</v>
       </c>
@@ -12132,7 +12131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>376</v>
       </c>
@@ -12158,7 +12157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>377</v>
       </c>
@@ -12184,7 +12183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>378</v>
       </c>
@@ -12210,7 +12209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>379</v>
       </c>
@@ -12236,7 +12235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>380</v>
       </c>
@@ -12262,7 +12261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>381</v>
       </c>
@@ -12288,7 +12287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>382</v>
       </c>
@@ -12314,7 +12313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>383</v>
       </c>
@@ -12340,7 +12339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>384</v>
       </c>
@@ -12366,7 +12365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>385</v>
       </c>
@@ -12392,7 +12391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>386</v>
       </c>
@@ -12418,7 +12417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>387</v>
       </c>
@@ -12444,7 +12443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>388</v>
       </c>
@@ -12470,7 +12469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>389</v>
       </c>
@@ -12496,7 +12495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>390</v>
       </c>
@@ -12522,7 +12521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>391</v>
       </c>
@@ -12548,7 +12547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>392</v>
       </c>
@@ -12574,7 +12573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>393</v>
       </c>
@@ -12600,7 +12599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>394</v>
       </c>
@@ -12626,7 +12625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>395</v>
       </c>
@@ -12652,7 +12651,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>396</v>
       </c>
@@ -12678,7 +12677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>397</v>
       </c>
@@ -12704,7 +12703,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>398</v>
       </c>
@@ -12730,7 +12729,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>399</v>
       </c>
@@ -12756,7 +12755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>400</v>
       </c>
@@ -12782,7 +12781,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>401</v>
       </c>
@@ -12808,7 +12807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>402</v>
       </c>
@@ -12834,7 +12833,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>403</v>
       </c>
@@ -12860,7 +12859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>404</v>
       </c>
@@ -12886,7 +12885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>405</v>
       </c>
@@ -12912,7 +12911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>406</v>
       </c>
@@ -12938,7 +12937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>407</v>
       </c>
@@ -12964,7 +12963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>408</v>
       </c>
@@ -12990,7 +12989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>409</v>
       </c>
@@ -13016,7 +13015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>410</v>
       </c>
@@ -13042,7 +13041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>411</v>
       </c>
@@ -13068,7 +13067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>412</v>
       </c>
@@ -13094,7 +13093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>413</v>
       </c>
@@ -13120,7 +13119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>414</v>
       </c>
@@ -13146,7 +13145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>415</v>
       </c>
@@ -13172,7 +13171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>416</v>
       </c>
@@ -13198,7 +13197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>417</v>
       </c>
@@ -13224,7 +13223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>418</v>
       </c>
@@ -13250,7 +13249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>419</v>
       </c>
@@ -13276,7 +13275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>420</v>
       </c>
@@ -13302,7 +13301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>421</v>
       </c>
@@ -13328,7 +13327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>422</v>
       </c>
@@ -13354,7 +13353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>423</v>
       </c>
@@ -13380,7 +13379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>424</v>
       </c>
@@ -13406,7 +13405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>425</v>
       </c>
@@ -13432,7 +13431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>426</v>
       </c>
@@ -13458,7 +13457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>427</v>
       </c>
@@ -13484,7 +13483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>428</v>
       </c>
@@ -13510,7 +13509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>429</v>
       </c>
@@ -13536,7 +13535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>430</v>
       </c>
@@ -13562,7 +13561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>431</v>
       </c>
@@ -13588,7 +13587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>432</v>
       </c>
@@ -13614,7 +13613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>433</v>
       </c>
@@ -13640,7 +13639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>434</v>
       </c>
@@ -13666,7 +13665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>435</v>
       </c>
@@ -13692,7 +13691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>436</v>
       </c>
@@ -13718,7 +13717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>437</v>
       </c>
@@ -13744,7 +13743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>438</v>
       </c>
@@ -13770,7 +13769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>439</v>
       </c>
@@ -13796,7 +13795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>440</v>
       </c>
@@ -13822,7 +13821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>441</v>
       </c>
@@ -13848,7 +13847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>442</v>
       </c>
@@ -13874,7 +13873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>443</v>
       </c>
@@ -13900,7 +13899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>444</v>
       </c>
@@ -13923,7 +13922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>445</v>
       </c>
@@ -13946,7 +13945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>446</v>
       </c>
@@ -13969,7 +13968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>447</v>
       </c>
@@ -13992,7 +13991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>448</v>
       </c>
@@ -14015,7 +14014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>449</v>
       </c>
@@ -14038,7 +14037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>450</v>
       </c>
@@ -14061,7 +14060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>451</v>
       </c>
@@ -14084,7 +14083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>452</v>
       </c>
@@ -14107,7 +14106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>453</v>
       </c>
@@ -14130,7 +14129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>454</v>
       </c>
@@ -14156,7 +14155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>455</v>
       </c>
@@ -14182,7 +14181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>456</v>
       </c>
@@ -14208,7 +14207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>457</v>
       </c>
@@ -14234,7 +14233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>458</v>
       </c>
@@ -14260,7 +14259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>459</v>
       </c>
@@ -14286,7 +14285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>460</v>
       </c>
@@ -14312,7 +14311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>461</v>
       </c>
@@ -14338,7 +14337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>462</v>
       </c>
@@ -14364,7 +14363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>463</v>
       </c>
@@ -14390,7 +14389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>464</v>
       </c>
@@ -14416,7 +14415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>465</v>
       </c>
@@ -14442,7 +14441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>466</v>
       </c>
@@ -14468,7 +14467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>467</v>
       </c>
@@ -14494,7 +14493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>468</v>
       </c>
@@ -14520,7 +14519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>469</v>
       </c>
@@ -14546,7 +14545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>470</v>
       </c>
@@ -14572,7 +14571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>471</v>
       </c>
@@ -14598,7 +14597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>472</v>
       </c>
@@ -14624,7 +14623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>473</v>
       </c>
@@ -14650,7 +14649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>474</v>
       </c>
@@ -14676,7 +14675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>475</v>
       </c>
@@ -14702,7 +14701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>476</v>
       </c>
@@ -14728,7 +14727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>477</v>
       </c>
@@ -14754,7 +14753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>478</v>
       </c>
@@ -14780,7 +14779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>479</v>
       </c>
@@ -14806,7 +14805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>480</v>
       </c>
@@ -14832,7 +14831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>481</v>
       </c>
@@ -14858,7 +14857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>482</v>
       </c>
@@ -14884,7 +14883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>483</v>
       </c>
@@ -14910,7 +14909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>484</v>
       </c>
@@ -14936,7 +14935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>485</v>
       </c>
@@ -14962,7 +14961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>486</v>
       </c>
@@ -14988,7 +14987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>487</v>
       </c>
@@ -15014,7 +15013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>488</v>
       </c>
@@ -15040,7 +15039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>489</v>
       </c>
@@ -15066,7 +15065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>490</v>
       </c>
@@ -15092,7 +15091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>491</v>
       </c>
@@ -15118,7 +15117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>492</v>
       </c>
@@ -15144,7 +15143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>493</v>
       </c>
@@ -15170,7 +15169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>494</v>
       </c>
@@ -15196,7 +15195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>495</v>
       </c>
@@ -15222,7 +15221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>496</v>
       </c>
@@ -15248,7 +15247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>497</v>
       </c>
@@ -15274,7 +15273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>498</v>
       </c>
@@ -15300,7 +15299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>499</v>
       </c>
@@ -15326,7 +15325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>500</v>
       </c>
@@ -15352,7 +15351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>501</v>
       </c>
@@ -15378,7 +15377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>502</v>
       </c>
@@ -15404,7 +15403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>503</v>
       </c>
@@ -15430,7 +15429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>504</v>
       </c>
@@ -15456,7 +15455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>505</v>
       </c>
@@ -15482,7 +15481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>506</v>
       </c>
@@ -15508,7 +15507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>507</v>
       </c>
@@ -15534,7 +15533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>508</v>
       </c>
@@ -15560,7 +15559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>509</v>
       </c>
@@ -15586,7 +15585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>510</v>
       </c>
@@ -15612,7 +15611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>511</v>
       </c>
@@ -15638,7 +15637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>512</v>
       </c>
@@ -15664,7 +15663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>513</v>
       </c>
@@ -15690,7 +15689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>514</v>
       </c>
@@ -15716,7 +15715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>515</v>
       </c>
@@ -15742,7 +15741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>516</v>
       </c>
@@ -15768,7 +15767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>517</v>
       </c>
@@ -15794,7 +15793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>518</v>
       </c>
@@ -15820,7 +15819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>519</v>
       </c>
@@ -15846,7 +15845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>520</v>
       </c>
@@ -15872,7 +15871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>521</v>
       </c>
@@ -15898,7 +15897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>522</v>
       </c>
@@ -15924,7 +15923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>523</v>
       </c>
@@ -15950,7 +15949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>524</v>
       </c>
@@ -15976,7 +15975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>525</v>
       </c>
@@ -16002,7 +16001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>526</v>
       </c>
@@ -16028,7 +16027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>527</v>
       </c>
@@ -16054,7 +16053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>528</v>
       </c>
@@ -16080,7 +16079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>529</v>
       </c>
@@ -16106,7 +16105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>530</v>
       </c>
@@ -16132,7 +16131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>531</v>
       </c>
@@ -16158,7 +16157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>532</v>
       </c>
@@ -16184,7 +16183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>533</v>
       </c>
@@ -16210,7 +16209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>534</v>
       </c>
@@ -16236,7 +16235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>535</v>
       </c>
@@ -16262,7 +16261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>536</v>
       </c>
@@ -16288,7 +16287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>537</v>
       </c>
@@ -16314,7 +16313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>538</v>
       </c>
@@ -16340,7 +16339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>539</v>
       </c>
@@ -16366,7 +16365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>540</v>
       </c>
@@ -16392,7 +16391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>541</v>
       </c>
@@ -16418,7 +16417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>542</v>
       </c>
@@ -16444,7 +16443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>543</v>
       </c>
@@ -16470,7 +16469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>544</v>
       </c>
@@ -16496,7 +16495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>545</v>
       </c>
@@ -16522,7 +16521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>546</v>
       </c>
@@ -16548,7 +16547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>547</v>
       </c>
@@ -16574,7 +16573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>548</v>
       </c>
@@ -16600,7 +16599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>549</v>
       </c>
@@ -16626,7 +16625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>550</v>
       </c>
@@ -16652,7 +16651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>551</v>
       </c>
@@ -16678,7 +16677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>552</v>
       </c>
@@ -16704,7 +16703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>553</v>
       </c>
@@ -16730,7 +16729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>554</v>
       </c>
@@ -16753,7 +16752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>555</v>
       </c>
@@ -16776,7 +16775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>556</v>
       </c>
@@ -16799,7 +16798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>557</v>
       </c>
@@ -16822,7 +16821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>558</v>
       </c>
@@ -16845,7 +16844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>559</v>
       </c>
@@ -16868,7 +16867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>560</v>
       </c>
@@ -16891,7 +16890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>561</v>
       </c>
@@ -16914,7 +16913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>562</v>
       </c>
@@ -16937,7 +16936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>563</v>
       </c>
@@ -16960,7 +16959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>564</v>
       </c>
@@ -16986,7 +16985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>565</v>
       </c>
@@ -17012,7 +17011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>566</v>
       </c>
@@ -17038,7 +17037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>567</v>
       </c>
@@ -17064,7 +17063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>568</v>
       </c>
@@ -17090,7 +17089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>569</v>
       </c>
@@ -17116,7 +17115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>570</v>
       </c>
@@ -17142,7 +17141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>571</v>
       </c>
@@ -17168,7 +17167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>572</v>
       </c>
@@ -17194,7 +17193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>573</v>
       </c>
@@ -17220,7 +17219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>574</v>
       </c>
@@ -17246,7 +17245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>575</v>
       </c>
@@ -17272,7 +17271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>576</v>
       </c>
@@ -17298,7 +17297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>577</v>
       </c>
@@ -17324,7 +17323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>578</v>
       </c>
@@ -17350,7 +17349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>579</v>
       </c>
@@ -17376,7 +17375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>580</v>
       </c>
@@ -17402,7 +17401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>581</v>
       </c>
@@ -17428,7 +17427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>582</v>
       </c>
@@ -17454,7 +17453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>583</v>
       </c>
@@ -17480,7 +17479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>584</v>
       </c>
@@ -17506,7 +17505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>585</v>
       </c>
@@ -17532,7 +17531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>586</v>
       </c>
@@ -17558,7 +17557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>587</v>
       </c>
@@ -17584,7 +17583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>588</v>
       </c>
@@ -17610,7 +17609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>589</v>
       </c>
@@ -17636,7 +17635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>590</v>
       </c>
@@ -17662,7 +17661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>591</v>
       </c>
@@ -17688,7 +17687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>592</v>
       </c>
@@ -17714,7 +17713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>593</v>
       </c>
@@ -17740,7 +17739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>594</v>
       </c>
@@ -17766,7 +17765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>595</v>
       </c>
@@ -17792,7 +17791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>596</v>
       </c>
@@ -17818,7 +17817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>597</v>
       </c>
@@ -17844,7 +17843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>598</v>
       </c>
@@ -17870,7 +17869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>599</v>
       </c>
@@ -17896,7 +17895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>600</v>
       </c>
@@ -17922,7 +17921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>601</v>
       </c>
@@ -17948,7 +17947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>602</v>
       </c>
@@ -17974,7 +17973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>603</v>
       </c>
@@ -18000,7 +17999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>604</v>
       </c>
@@ -18026,7 +18025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>605</v>
       </c>
@@ -18052,7 +18051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>606</v>
       </c>
@@ -18078,7 +18077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>607</v>
       </c>
@@ -18104,7 +18103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>608</v>
       </c>
@@ -18130,7 +18129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>609</v>
       </c>
@@ -18156,7 +18155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>610</v>
       </c>
@@ -18182,7 +18181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>611</v>
       </c>
@@ -18208,7 +18207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>612</v>
       </c>
@@ -18234,7 +18233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>613</v>
       </c>
@@ -18260,7 +18259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>614</v>
       </c>
@@ -18283,7 +18282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>615</v>
       </c>
@@ -18306,7 +18305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>616</v>
       </c>
@@ -18329,7 +18328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>617</v>
       </c>
@@ -18352,7 +18351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>618</v>
       </c>
@@ -18375,7 +18374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>619</v>
       </c>
@@ -18398,7 +18397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>620</v>
       </c>
@@ -18421,7 +18420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>621</v>
       </c>
@@ -18444,7 +18443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>622</v>
       </c>
@@ -18467,7 +18466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>623</v>
       </c>
@@ -18490,7 +18489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>624</v>
       </c>
@@ -18513,7 +18512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>625</v>
       </c>
@@ -18536,7 +18535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>626</v>
       </c>
@@ -18559,7 +18558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>627</v>
       </c>
@@ -18582,7 +18581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>628</v>
       </c>
@@ -18605,7 +18604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>629</v>
       </c>
@@ -18628,7 +18627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>630</v>
       </c>
@@ -18651,7 +18650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>631</v>
       </c>
@@ -18674,7 +18673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>632</v>
       </c>
@@ -18700,7 +18699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>633</v>
       </c>
@@ -18723,7 +18722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>634</v>
       </c>
@@ -18746,7 +18745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>635</v>
       </c>
@@ -18769,7 +18768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>636</v>
       </c>
@@ -18792,7 +18791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>637</v>
       </c>
@@ -18815,7 +18814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>638</v>
       </c>
@@ -18838,7 +18837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>639</v>
       </c>
@@ -18861,7 +18860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>640</v>
       </c>
@@ -18887,7 +18886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>641</v>
       </c>
@@ -18910,7 +18909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>642</v>
       </c>
@@ -18933,7 +18932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>643</v>
       </c>
@@ -18956,7 +18955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>644</v>
       </c>
@@ -18982,7 +18981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>645</v>
       </c>
@@ -19008,7 +19007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>646</v>
       </c>
@@ -19034,7 +19033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>647</v>
       </c>
@@ -19060,7 +19059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>648</v>
       </c>
@@ -19086,7 +19085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>649</v>
       </c>
@@ -19112,7 +19111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>650</v>
       </c>
@@ -19138,7 +19137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>651</v>
       </c>
@@ -19164,7 +19163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>652</v>
       </c>
@@ -19190,7 +19189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>653</v>
       </c>
@@ -19217,7 +19216,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I641" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I641"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>